--- a/interestRate.xlsx
+++ b/interestRate.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$D$210</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$85</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="64">
   <si>
     <t>UP</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -321,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +347,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -679,9 +682,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="6">
-        <v>42613</v>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="9">
+        <v>42735</v>
       </c>
       <c r="B2" s="7">
         <v>1.25</v>
@@ -700,9 +703,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="6">
-        <v>42582</v>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="9">
+        <v>42704</v>
       </c>
       <c r="B3" s="7">
         <v>1.25</v>
@@ -721,16 +724,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="6">
-        <v>42551</v>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="9">
+        <v>42674</v>
       </c>
       <c r="B4" s="7">
         <v>1.25</v>
       </c>
       <c r="C4" s="7" t="str">
-        <f t="shared" ref="C4:C65" si="0">IF(B4-B5=0,"STAY",IF(B4&gt;B5,"UP","DOWN"))</f>
-        <v>DOWN</v>
+        <f>IF(B4-B5=0,"STAY",IF(B4&gt;B5,"UP","DOWN"))</f>
+        <v>STAY</v>
       </c>
       <c r="D4" s="7">
         <v>6</v>
@@ -742,15 +745,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="6">
-        <v>42521</v>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="9">
+        <v>42643</v>
       </c>
       <c r="B5" s="7">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C5" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B5-B6=0,"STAY",IF(B5&gt;B6,"UP","DOWN"))</f>
         <v>STAY</v>
       </c>
       <c r="D5" s="7">
@@ -765,70 +768,70 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="6">
-        <v>42490</v>
+        <v>42613</v>
       </c>
       <c r="B6" s="7">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C6" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B6-B7=0,"STAY",IF(B6&gt;B7,"UP","DOWN"))</f>
         <v>STAY</v>
       </c>
       <c r="D6" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="6">
-        <v>42460</v>
+        <v>42582</v>
       </c>
       <c r="B7" s="7">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C7" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7-B8=0,"STAY",IF(B7&gt;B8,"UP","DOWN"))</f>
         <v>STAY</v>
       </c>
       <c r="D7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="6">
-        <v>42429</v>
+        <v>42551</v>
       </c>
       <c r="B8" s="7">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
+        <f t="shared" ref="C8:C69" si="0">IF(B8-B9=0,"STAY",IF(B8&gt;B9,"UP","DOWN"))</f>
+        <v>DOWN</v>
       </c>
       <c r="D8" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="6">
-        <v>42400</v>
+        <v>42521</v>
       </c>
       <c r="B9" s="7">
         <v>1.5</v>
@@ -849,7 +852,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="6">
-        <v>42369</v>
+        <v>42490</v>
       </c>
       <c r="B10" s="7">
         <v>1.5</v>
@@ -859,18 +862,18 @@
         <v>STAY</v>
       </c>
       <c r="D10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="6">
-        <v>42338</v>
+        <v>42460</v>
       </c>
       <c r="B11" s="7">
         <v>1.5</v>
@@ -880,18 +883,18 @@
         <v>STAY</v>
       </c>
       <c r="D11" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="6">
-        <v>42308</v>
+        <v>42429</v>
       </c>
       <c r="B12" s="7">
         <v>1.5</v>
@@ -901,18 +904,18 @@
         <v>STAY</v>
       </c>
       <c r="D12" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="6">
-        <v>42277</v>
+        <v>42400</v>
       </c>
       <c r="B13" s="7">
         <v>1.5</v>
@@ -933,7 +936,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="6">
-        <v>42247</v>
+        <v>42369</v>
       </c>
       <c r="B14" s="7">
         <v>1.5</v>
@@ -954,7 +957,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="6">
-        <v>42216</v>
+        <v>42338</v>
       </c>
       <c r="B15" s="7">
         <v>1.5</v>
@@ -975,322 +978,322 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="6">
-        <v>42185</v>
+        <v>42308</v>
       </c>
       <c r="B16" s="7">
         <v>1.5</v>
       </c>
       <c r="C16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D16" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="6">
-        <v>42155</v>
+        <v>42277</v>
       </c>
       <c r="B17" s="7">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="C17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D17" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="6">
-        <v>42124</v>
+        <v>42247</v>
       </c>
       <c r="B18" s="7">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="C18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D18" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="6">
-        <v>42094</v>
+        <v>42216</v>
       </c>
       <c r="B19" s="7">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="C19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D19" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="6">
-        <v>42063</v>
+        <v>42185</v>
       </c>
       <c r="B20" s="7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D20" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="6">
-        <v>42035</v>
+        <v>42155</v>
       </c>
       <c r="B21" s="7">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="C21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D21" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="6">
-        <v>42004</v>
+        <v>42124</v>
       </c>
       <c r="B22" s="7">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="C22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D22" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" s="6">
-        <v>41973</v>
+        <v>42094</v>
       </c>
       <c r="B23" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="C23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-      <c r="D23" s="7">
-        <v>6</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="6">
-        <v>41943</v>
+        <v>42063</v>
       </c>
       <c r="B24" s="7">
         <v>2</v>
       </c>
       <c r="C24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D24" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="6">
-        <v>41912</v>
+        <v>42035</v>
       </c>
       <c r="B25" s="7">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="C25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D25" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="6">
-        <v>41882</v>
+        <v>42004</v>
       </c>
       <c r="B26" s="7">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="C26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D26" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="6">
-        <v>41851</v>
+        <v>41973</v>
       </c>
       <c r="B27" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D27" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="6">
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="B28" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D28" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" s="6">
-        <v>41790</v>
+        <v>41912</v>
       </c>
       <c r="B29" s="7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="C29" s="7" t="str">
         <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D29" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="6">
-        <v>41759</v>
+        <v>41882</v>
       </c>
       <c r="B30" s="7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="C30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D30" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="6">
-        <v>41729</v>
+        <v>41851</v>
       </c>
       <c r="B31" s="7">
         <v>2.5</v>
@@ -1300,18 +1303,18 @@
         <v>STAY</v>
       </c>
       <c r="D31" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="6">
-        <v>41698</v>
+        <v>41820</v>
       </c>
       <c r="B32" s="7">
         <v>2.5</v>
@@ -1332,7 +1335,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="6">
-        <v>41670</v>
+        <v>41790</v>
       </c>
       <c r="B33" s="7">
         <v>2.5</v>
@@ -1353,7 +1356,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="6">
-        <v>41639</v>
+        <v>41759</v>
       </c>
       <c r="B34" s="7">
         <v>2.5</v>
@@ -1374,7 +1377,7 @@
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="6">
-        <v>41608</v>
+        <v>41729</v>
       </c>
       <c r="B35" s="7">
         <v>2.5</v>
@@ -1395,7 +1398,7 @@
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="6">
-        <v>41578</v>
+        <v>41698</v>
       </c>
       <c r="B36" s="7">
         <v>2.5</v>
@@ -1416,7 +1419,7 @@
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="6">
-        <v>41547</v>
+        <v>41670</v>
       </c>
       <c r="B37" s="7">
         <v>2.5</v>
@@ -1437,7 +1440,7 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="6">
-        <v>41517</v>
+        <v>41639</v>
       </c>
       <c r="B38" s="7">
         <v>2.5</v>
@@ -1458,7 +1461,7 @@
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="6">
-        <v>41486</v>
+        <v>41608</v>
       </c>
       <c r="B39" s="7">
         <v>2.5</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="6">
-        <v>41455</v>
+        <v>41578</v>
       </c>
       <c r="B40" s="7">
         <v>2.5</v>
@@ -1500,98 +1503,98 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="6">
-        <v>41425</v>
+        <v>41547</v>
       </c>
       <c r="B41" s="7">
         <v>2.5</v>
       </c>
       <c r="C41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D41" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="6">
-        <v>41394</v>
+        <v>41517</v>
       </c>
       <c r="B42" s="7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="C42" s="7" t="str">
         <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D42" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E42" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="6">
-        <v>41364</v>
+        <v>41486</v>
       </c>
       <c r="B43" s="7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="C43" s="7" t="str">
         <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D43" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="6">
-        <v>41333</v>
+        <v>41455</v>
       </c>
       <c r="B44" s="7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="C44" s="7" t="str">
         <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D44" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="6">
-        <v>41305</v>
+        <v>41425</v>
       </c>
       <c r="B45" s="7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="C45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D45" s="7">
         <v>5</v>
@@ -1600,12 +1603,12 @@
         <v>1</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1">
       <c r="A46" s="6">
-        <v>41274</v>
+        <v>41394</v>
       </c>
       <c r="B46" s="7">
         <v>2.75</v>
@@ -1615,18 +1618,18 @@
         <v>STAY</v>
       </c>
       <c r="D46" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E46" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" s="6">
-        <v>41243</v>
+        <v>41364</v>
       </c>
       <c r="B47" s="7">
         <v>2.75</v>
@@ -1636,63 +1639,63 @@
         <v>STAY</v>
       </c>
       <c r="D47" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1">
       <c r="A48" s="6">
-        <v>41213</v>
+        <v>41333</v>
       </c>
       <c r="B48" s="7">
         <v>2.75</v>
       </c>
       <c r="C48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D48" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1">
       <c r="A49" s="6">
-        <v>41182</v>
+        <v>41305</v>
       </c>
       <c r="B49" s="7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="C49" s="7" t="str">
         <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D49" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
       <c r="A50" s="6">
-        <v>41152</v>
+        <v>41274</v>
       </c>
       <c r="B50" s="7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="C50" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1710,35 +1713,35 @@
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
       <c r="A51" s="6">
-        <v>41121</v>
+        <v>41243</v>
       </c>
       <c r="B51" s="7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="C51" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D51" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
       <c r="A52" s="6">
-        <v>41090</v>
+        <v>41213</v>
       </c>
       <c r="B52" s="7">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="C52" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D52" s="7">
         <v>6</v>
@@ -1747,15 +1750,15 @@
         <v>0</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1">
       <c r="A53" s="6">
-        <v>41060</v>
+        <v>41182</v>
       </c>
       <c r="B53" s="7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="C53" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1773,10 +1776,10 @@
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1">
       <c r="A54" s="6">
-        <v>41029</v>
+        <v>41152</v>
       </c>
       <c r="B54" s="7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="C54" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1794,28 +1797,28 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55" s="6">
-        <v>40999</v>
+        <v>41121</v>
       </c>
       <c r="B55" s="7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="C55" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D55" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="A56" s="6">
-        <v>40968</v>
+        <v>41090</v>
       </c>
       <c r="B56" s="7">
         <v>3.25</v>
@@ -1836,7 +1839,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" s="6">
-        <v>40939</v>
+        <v>41060</v>
       </c>
       <c r="B57" s="7">
         <v>3.25</v>
@@ -1857,7 +1860,7 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1">
       <c r="A58" s="6">
-        <v>40908</v>
+        <v>41029</v>
       </c>
       <c r="B58" s="7">
         <v>3.25</v>
@@ -1878,7 +1881,7 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1">
       <c r="A59" s="6">
-        <v>40877</v>
+        <v>40999</v>
       </c>
       <c r="B59" s="7">
         <v>3.25</v>
@@ -1899,7 +1902,7 @@
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
       <c r="A60" s="6">
-        <v>40847</v>
+        <v>40968</v>
       </c>
       <c r="B60" s="7">
         <v>3.25</v>
@@ -1920,7 +1923,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1">
       <c r="A61" s="6">
-        <v>40816</v>
+        <v>40939</v>
       </c>
       <c r="B61" s="7">
         <v>3.25</v>
@@ -1930,18 +1933,18 @@
         <v>STAY</v>
       </c>
       <c r="D61" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E61" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
       <c r="A62" s="6">
-        <v>40786</v>
+        <v>40908</v>
       </c>
       <c r="B62" s="7">
         <v>3.25</v>
@@ -1962,7 +1965,7 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="A63" s="6">
-        <v>40755</v>
+        <v>40877</v>
       </c>
       <c r="B63" s="7">
         <v>3.25</v>
@@ -1983,14 +1986,14 @@
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1">
       <c r="A64" s="6">
-        <v>40724</v>
+        <v>40847</v>
       </c>
       <c r="B64" s="7">
         <v>3.25</v>
       </c>
       <c r="C64" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>UP</v>
+        <v>STAY</v>
       </c>
       <c r="D64" s="7">
         <v>6</v>
@@ -2004,10 +2007,10 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1">
       <c r="A65" s="6">
-        <v>40694</v>
+        <v>40816</v>
       </c>
       <c r="B65" s="7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="C65" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2025,77 +2028,77 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1">
       <c r="A66" s="6">
-        <v>40663</v>
+        <v>40786</v>
       </c>
       <c r="B66" s="7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="C66" s="7" t="str">
-        <f t="shared" ref="C66:C129" si="1">IF(B66-B67=0,"STAY",IF(B66&gt;B67,"UP","DOWN"))</f>
+        <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D66" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E66" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1">
       <c r="A67" s="6">
-        <v>40633</v>
+        <v>40755</v>
       </c>
       <c r="B67" s="7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="C67" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>UP</v>
+        <f t="shared" si="0"/>
+        <v>STAY</v>
       </c>
       <c r="D67" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E67" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1">
       <c r="A68" s="6">
-        <v>40602</v>
+        <v>40724</v>
       </c>
       <c r="B68" s="7">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="C68" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>STAY</v>
+        <f t="shared" si="0"/>
+        <v>UP</v>
       </c>
       <c r="D68" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E68" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1">
       <c r="A69" s="6">
-        <v>40574</v>
+        <v>40694</v>
       </c>
       <c r="B69" s="7">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="C69" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>UP</v>
+        <f t="shared" si="0"/>
+        <v>STAY</v>
       </c>
       <c r="D69" s="7">
         <v>4</v>
@@ -2104,82 +2107,82 @@
         <v>2</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1">
       <c r="A70" s="6">
-        <v>40543</v>
+        <v>40663</v>
       </c>
       <c r="B70" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C70" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C70:C133" si="1">IF(B70-B71=0,"STAY",IF(B70&gt;B71,"UP","DOWN"))</f>
         <v>STAY</v>
       </c>
       <c r="D70" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E70" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1">
       <c r="A71" s="6">
-        <v>40512</v>
+        <v>40633</v>
       </c>
       <c r="B71" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C71" s="7" t="str">
         <f t="shared" si="1"/>
         <v>UP</v>
       </c>
       <c r="D71" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E71" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1">
       <c r="A72" s="6">
-        <v>40482</v>
+        <v>40602</v>
       </c>
       <c r="B72" s="7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="C72" s="7" t="str">
         <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D72" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
       <c r="A73" s="6">
-        <v>40451</v>
+        <v>40574</v>
       </c>
       <c r="B73" s="7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="C73" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>STAY</v>
+        <v>UP</v>
       </c>
       <c r="D73" s="7">
         <v>4</v>
@@ -2188,15 +2191,15 @@
         <v>2</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
       <c r="A74" s="6">
-        <v>40421</v>
+        <v>40543</v>
       </c>
       <c r="B74" s="7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="C74" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2214,73 +2217,73 @@
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1">
       <c r="A75" s="6">
-        <v>40390</v>
+        <v>40512</v>
       </c>
       <c r="B75" s="7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="C75" s="7" t="str">
         <f t="shared" si="1"/>
         <v>UP</v>
       </c>
       <c r="D75" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E75" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1">
       <c r="A76" s="6">
-        <v>40359</v>
+        <v>40482</v>
       </c>
       <c r="B76" s="7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="C76" s="7" t="str">
         <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D76" s="7">
+        <v>5</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="E76" s="7">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1">
       <c r="A77" s="6">
-        <v>40329</v>
+        <v>40451</v>
       </c>
       <c r="B77" s="7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="C77" s="7" t="str">
         <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D77" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E77" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1">
       <c r="A78" s="6">
-        <v>40298</v>
+        <v>40421</v>
       </c>
       <c r="B78" s="7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="C78" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2298,28 +2301,28 @@
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1">
       <c r="A79" s="6">
-        <v>40268</v>
+        <v>40390</v>
       </c>
       <c r="B79" s="7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="C79" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>STAY</v>
+        <v>UP</v>
       </c>
       <c r="D79" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1">
       <c r="A80" s="6">
-        <v>40237</v>
+        <v>40359</v>
       </c>
       <c r="B80" s="7">
         <v>2</v>
@@ -2335,12 +2338,12 @@
         <v>0</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1">
       <c r="A81" s="6">
-        <v>40209</v>
+        <v>40329</v>
       </c>
       <c r="B81" s="7">
         <v>2</v>
@@ -2361,7 +2364,7 @@
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1">
       <c r="A82" s="6">
-        <v>40178</v>
+        <v>40298</v>
       </c>
       <c r="B82" s="7">
         <v>2</v>
@@ -2370,13 +2373,19 @@
         <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="D82" s="7">
+        <v>6</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1">
       <c r="A83" s="6">
-        <v>40147</v>
+        <v>40268</v>
       </c>
       <c r="B83" s="7">
         <v>2</v>
@@ -2385,13 +2394,19 @@
         <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+      <c r="D83" s="7">
+        <v>6</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1">
       <c r="A84" s="6">
-        <v>40117</v>
+        <v>40237</v>
       </c>
       <c r="B84" s="7">
         <v>2</v>
@@ -2400,13 +2415,19 @@
         <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="D84" s="7">
+        <v>6</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1">
       <c r="A85" s="6">
-        <v>40086</v>
+        <v>40209</v>
       </c>
       <c r="B85" s="7">
         <v>2</v>
@@ -2415,13 +2436,19 @@
         <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="D85" s="7">
+        <v>6</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1">
       <c r="A86" s="6">
-        <v>40056</v>
+        <v>40178</v>
       </c>
       <c r="B86" s="7">
         <v>2</v>
@@ -2436,7 +2463,7 @@
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1">
       <c r="A87" s="6">
-        <v>40025</v>
+        <v>40147</v>
       </c>
       <c r="B87" s="7">
         <v>2</v>
@@ -2451,7 +2478,7 @@
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1">
       <c r="A88" s="6">
-        <v>39994</v>
+        <v>40117</v>
       </c>
       <c r="B88" s="7">
         <v>2</v>
@@ -2466,7 +2493,7 @@
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1">
       <c r="A89" s="6">
-        <v>39964</v>
+        <v>40086</v>
       </c>
       <c r="B89" s="7">
         <v>2</v>
@@ -2481,7 +2508,7 @@
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1">
       <c r="A90" s="6">
-        <v>39933</v>
+        <v>40056</v>
       </c>
       <c r="B90" s="7">
         <v>2</v>
@@ -2496,7 +2523,7 @@
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1">
       <c r="A91" s="6">
-        <v>39903</v>
+        <v>40025</v>
       </c>
       <c r="B91" s="7">
         <v>2</v>
@@ -2511,14 +2538,14 @@
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1">
       <c r="A92" s="6">
-        <v>39872</v>
+        <v>39994</v>
       </c>
       <c r="B92" s="7">
         <v>2</v>
       </c>
       <c r="C92" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -2526,14 +2553,14 @@
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1">
       <c r="A93" s="6">
-        <v>39844</v>
+        <v>39964</v>
       </c>
       <c r="B93" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C93" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -2541,14 +2568,14 @@
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1">
       <c r="A94" s="6">
-        <v>39813</v>
+        <v>39933</v>
       </c>
       <c r="B94" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -2556,14 +2583,14 @@
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1">
       <c r="A95" s="6">
-        <v>39782</v>
+        <v>39903</v>
       </c>
       <c r="B95" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -2571,10 +2598,10 @@
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1">
       <c r="A96" s="6">
-        <v>39752</v>
+        <v>39872</v>
       </c>
       <c r="B96" s="7">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="C96" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2586,14 +2613,14 @@
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1">
       <c r="A97" s="6">
-        <v>39721</v>
+        <v>39844</v>
       </c>
       <c r="B97" s="7">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="C97" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -2601,14 +2628,14 @@
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1">
       <c r="A98" s="6">
-        <v>39691</v>
+        <v>39813</v>
       </c>
       <c r="B98" s="7">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="C98" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>UP</v>
+        <v>DOWN</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -2616,14 +2643,14 @@
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1">
       <c r="A99" s="6">
-        <v>39660</v>
+        <v>39782</v>
       </c>
       <c r="B99" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -2631,14 +2658,14 @@
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1">
       <c r="A100" s="6">
-        <v>39629</v>
+        <v>39752</v>
       </c>
       <c r="B100" s="7">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="C100" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -2646,10 +2673,10 @@
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1">
       <c r="A101" s="6">
-        <v>39599</v>
+        <v>39721</v>
       </c>
       <c r="B101" s="7">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="C101" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2661,14 +2688,14 @@
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1">
       <c r="A102" s="6">
-        <v>39568</v>
+        <v>39691</v>
       </c>
       <c r="B102" s="7">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="C102" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>STAY</v>
+        <v>UP</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -2676,7 +2703,7 @@
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1">
       <c r="A103" s="6">
-        <v>39538</v>
+        <v>39660</v>
       </c>
       <c r="B103" s="7">
         <v>5</v>
@@ -2691,7 +2718,7 @@
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1">
       <c r="A104" s="6">
-        <v>39507</v>
+        <v>39629</v>
       </c>
       <c r="B104" s="7">
         <v>5</v>
@@ -2706,7 +2733,7 @@
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1">
       <c r="A105" s="6">
-        <v>39478</v>
+        <v>39599</v>
       </c>
       <c r="B105" s="7">
         <v>5</v>
@@ -2721,7 +2748,7 @@
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1">
       <c r="A106" s="6">
-        <v>39447</v>
+        <v>39568</v>
       </c>
       <c r="B106" s="7">
         <v>5</v>
@@ -2736,7 +2763,7 @@
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1">
       <c r="A107" s="6">
-        <v>39416</v>
+        <v>39538</v>
       </c>
       <c r="B107" s="7">
         <v>5</v>
@@ -2751,7 +2778,7 @@
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1">
       <c r="A108" s="6">
-        <v>39386</v>
+        <v>39507</v>
       </c>
       <c r="B108" s="7">
         <v>5</v>
@@ -2766,7 +2793,7 @@
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1">
       <c r="A109" s="6">
-        <v>39355</v>
+        <v>39478</v>
       </c>
       <c r="B109" s="7">
         <v>5</v>
@@ -2781,14 +2808,14 @@
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1">
       <c r="A110" s="6">
-        <v>39325</v>
+        <v>39447</v>
       </c>
       <c r="B110" s="7">
         <v>5</v>
       </c>
       <c r="C110" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>UP</v>
+        <v>STAY</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -2796,14 +2823,14 @@
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1">
       <c r="A111" s="6">
-        <v>39294</v>
+        <v>39416</v>
       </c>
       <c r="B111" s="7">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="C111" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>UP</v>
+        <v>STAY</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -2811,10 +2838,10 @@
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1">
       <c r="A112" s="6">
-        <v>39263</v>
+        <v>39386</v>
       </c>
       <c r="B112" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C112" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2826,10 +2853,10 @@
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1">
       <c r="A113" s="6">
-        <v>39233</v>
+        <v>39355</v>
       </c>
       <c r="B113" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C113" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2841,14 +2868,14 @@
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1">
       <c r="A114" s="6">
-        <v>39202</v>
+        <v>39325</v>
       </c>
       <c r="B114" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C114" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>STAY</v>
+        <v>UP</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -2856,14 +2883,14 @@
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1">
       <c r="A115" s="6">
-        <v>39172</v>
+        <v>39294</v>
       </c>
       <c r="B115" s="7">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="C115" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>STAY</v>
+        <v>UP</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -2871,7 +2898,7 @@
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1">
       <c r="A116" s="6">
-        <v>39141</v>
+        <v>39263</v>
       </c>
       <c r="B116" s="7">
         <v>4.5</v>
@@ -2886,7 +2913,7 @@
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1">
       <c r="A117" s="6">
-        <v>39113</v>
+        <v>39233</v>
       </c>
       <c r="B117" s="7">
         <v>4.5</v>
@@ -2901,7 +2928,7 @@
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1">
       <c r="A118" s="6">
-        <v>39082</v>
+        <v>39202</v>
       </c>
       <c r="B118" s="7">
         <v>4.5</v>
@@ -2916,7 +2943,7 @@
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1">
       <c r="A119" s="6">
-        <v>39051</v>
+        <v>39172</v>
       </c>
       <c r="B119" s="7">
         <v>4.5</v>
@@ -2931,7 +2958,7 @@
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1">
       <c r="A120" s="6">
-        <v>39021</v>
+        <v>39141</v>
       </c>
       <c r="B120" s="7">
         <v>4.5</v>
@@ -2946,7 +2973,7 @@
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1">
       <c r="A121" s="6">
-        <v>38990</v>
+        <v>39113</v>
       </c>
       <c r="B121" s="7">
         <v>4.5</v>
@@ -2961,14 +2988,14 @@
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1">
       <c r="A122" s="6">
-        <v>38960</v>
+        <v>39082</v>
       </c>
       <c r="B122" s="7">
         <v>4.5</v>
       </c>
       <c r="C122" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>UP</v>
+        <v>STAY</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -2976,10 +3003,10 @@
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1">
       <c r="A123" s="6">
-        <v>38929</v>
+        <v>39051</v>
       </c>
       <c r="B123" s="7">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="C123" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2991,14 +3018,14 @@
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1">
       <c r="A124" s="6">
-        <v>38898</v>
+        <v>39021</v>
       </c>
       <c r="B124" s="7">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="C124" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>UP</v>
+        <v>STAY</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -3006,10 +3033,10 @@
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1">
       <c r="A125" s="6">
-        <v>38868</v>
+        <v>38990</v>
       </c>
       <c r="B125" s="7">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C125" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3021,14 +3048,14 @@
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1">
       <c r="A126" s="6">
-        <v>38837</v>
+        <v>38960</v>
       </c>
       <c r="B126" s="7">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C126" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>STAY</v>
+        <v>UP</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -3036,10 +3063,10 @@
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1">
       <c r="A127" s="6">
-        <v>38807</v>
+        <v>38929</v>
       </c>
       <c r="B127" s="7">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="C127" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3051,10 +3078,10 @@
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1">
       <c r="A128" s="6">
-        <v>38776</v>
+        <v>38898</v>
       </c>
       <c r="B128" s="7">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="C128" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3066,10 +3093,10 @@
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1">
       <c r="A129" s="6">
-        <v>38748</v>
+        <v>38868</v>
       </c>
       <c r="B129" s="7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="C129" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3081,14 +3108,14 @@
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1">
       <c r="A130" s="6">
-        <v>38717</v>
+        <v>38837</v>
       </c>
       <c r="B130" s="7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="C130" s="7" t="str">
-        <f t="shared" ref="C130:C193" si="2">IF(B130-B131=0,"STAY",IF(B130&gt;B131,"UP","DOWN"))</f>
-        <v>UP</v>
+        <f t="shared" si="1"/>
+        <v>STAY</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -3096,13 +3123,13 @@
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1">
       <c r="A131" s="6">
-        <v>38686</v>
+        <v>38807</v>
       </c>
       <c r="B131" s="7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C131" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D131" s="7"/>
@@ -3111,13 +3138,13 @@
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1">
       <c r="A132" s="6">
-        <v>38656</v>
+        <v>38776</v>
       </c>
       <c r="B132" s="7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C132" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>UP</v>
       </c>
       <c r="D132" s="7"/>
@@ -3126,13 +3153,13 @@
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1">
       <c r="A133" s="6">
-        <v>38625</v>
+        <v>38748</v>
       </c>
       <c r="B133" s="7">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="C133" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D133" s="7"/>
@@ -3141,14 +3168,14 @@
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1">
       <c r="A134" s="6">
-        <v>38595</v>
+        <v>38717</v>
       </c>
       <c r="B134" s="7">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="C134" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>STAY</v>
+        <f t="shared" ref="C134:C197" si="2">IF(B134-B135=0,"STAY",IF(B134&gt;B135,"UP","DOWN"))</f>
+        <v>UP</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -3156,10 +3183,10 @@
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1">
       <c r="A135" s="6">
-        <v>38564</v>
+        <v>38686</v>
       </c>
       <c r="B135" s="7">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="C135" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3171,14 +3198,14 @@
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1">
       <c r="A136" s="6">
-        <v>38533</v>
+        <v>38656</v>
       </c>
       <c r="B136" s="7">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="C136" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>STAY</v>
+        <v>UP</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -3186,7 +3213,7 @@
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1">
       <c r="A137" s="6">
-        <v>38503</v>
+        <v>38625</v>
       </c>
       <c r="B137" s="7">
         <v>3.25</v>
@@ -3201,7 +3228,7 @@
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1">
       <c r="A138" s="6">
-        <v>38472</v>
+        <v>38595</v>
       </c>
       <c r="B138" s="7">
         <v>3.25</v>
@@ -3216,7 +3243,7 @@
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1">
       <c r="A139" s="6">
-        <v>38442</v>
+        <v>38564</v>
       </c>
       <c r="B139" s="7">
         <v>3.25</v>
@@ -3231,7 +3258,7 @@
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1">
       <c r="A140" s="6">
-        <v>38411</v>
+        <v>38533</v>
       </c>
       <c r="B140" s="7">
         <v>3.25</v>
@@ -3246,7 +3273,7 @@
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1">
       <c r="A141" s="6">
-        <v>38383</v>
+        <v>38503</v>
       </c>
       <c r="B141" s="7">
         <v>3.25</v>
@@ -3261,7 +3288,7 @@
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1">
       <c r="A142" s="6">
-        <v>38352</v>
+        <v>38472</v>
       </c>
       <c r="B142" s="7">
         <v>3.25</v>
@@ -3276,14 +3303,14 @@
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1">
       <c r="A143" s="6">
-        <v>38321</v>
+        <v>38442</v>
       </c>
       <c r="B143" s="7">
         <v>3.25</v>
       </c>
       <c r="C143" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
@@ -3291,10 +3318,10 @@
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1">
       <c r="A144" s="6">
-        <v>38291</v>
+        <v>38411</v>
       </c>
       <c r="B144" s="7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="C144" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3306,10 +3333,10 @@
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1">
       <c r="A145" s="6">
-        <v>38260</v>
+        <v>38383</v>
       </c>
       <c r="B145" s="7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="C145" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3321,14 +3348,14 @@
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1">
       <c r="A146" s="6">
-        <v>38230</v>
+        <v>38352</v>
       </c>
       <c r="B146" s="7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="C146" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -3336,14 +3363,14 @@
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1">
       <c r="A147" s="6">
-        <v>38199</v>
+        <v>38321</v>
       </c>
       <c r="B147" s="7">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="C147" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -3351,10 +3378,10 @@
     </row>
     <row r="148" spans="1:6" ht="15" customHeight="1">
       <c r="A148" s="6">
-        <v>38168</v>
+        <v>38291</v>
       </c>
       <c r="B148" s="7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="C148" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3366,10 +3393,10 @@
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1">
       <c r="A149" s="6">
-        <v>38138</v>
+        <v>38260</v>
       </c>
       <c r="B149" s="7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="C149" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3381,14 +3408,14 @@
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1">
       <c r="A150" s="6">
-        <v>38107</v>
+        <v>38230</v>
       </c>
       <c r="B150" s="7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="C150" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -3396,7 +3423,7 @@
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1">
       <c r="A151" s="6">
-        <v>38077</v>
+        <v>38199</v>
       </c>
       <c r="B151" s="7">
         <v>3.75</v>
@@ -3411,7 +3438,7 @@
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1">
       <c r="A152" s="6">
-        <v>38046</v>
+        <v>38168</v>
       </c>
       <c r="B152" s="7">
         <v>3.75</v>
@@ -3426,7 +3453,7 @@
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1">
       <c r="A153" s="6">
-        <v>38017</v>
+        <v>38138</v>
       </c>
       <c r="B153" s="7">
         <v>3.75</v>
@@ -3441,7 +3468,7 @@
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1">
       <c r="A154" s="6">
-        <v>37986</v>
+        <v>38107</v>
       </c>
       <c r="B154" s="7">
         <v>3.75</v>
@@ -3456,7 +3483,7 @@
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1">
       <c r="A155" s="6">
-        <v>37955</v>
+        <v>38077</v>
       </c>
       <c r="B155" s="7">
         <v>3.75</v>
@@ -3471,7 +3498,7 @@
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1">
       <c r="A156" s="6">
-        <v>37925</v>
+        <v>38046</v>
       </c>
       <c r="B156" s="7">
         <v>3.75</v>
@@ -3486,7 +3513,7 @@
     </row>
     <row r="157" spans="1:6" ht="15" customHeight="1">
       <c r="A157" s="6">
-        <v>37894</v>
+        <v>38017</v>
       </c>
       <c r="B157" s="7">
         <v>3.75</v>
@@ -3501,7 +3528,7 @@
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1">
       <c r="A158" s="6">
-        <v>37864</v>
+        <v>37986</v>
       </c>
       <c r="B158" s="7">
         <v>3.75</v>
@@ -3516,14 +3543,14 @@
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1">
       <c r="A159" s="6">
-        <v>37833</v>
+        <v>37955</v>
       </c>
       <c r="B159" s="7">
         <v>3.75</v>
       </c>
       <c r="C159" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -3531,10 +3558,10 @@
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1">
       <c r="A160" s="6">
-        <v>37802</v>
+        <v>37925</v>
       </c>
       <c r="B160" s="7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="C160" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3546,14 +3573,14 @@
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1">
       <c r="A161" s="6">
-        <v>37772</v>
+        <v>37894</v>
       </c>
       <c r="B161" s="7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="C161" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -3561,10 +3588,10 @@
     </row>
     <row r="162" spans="1:6" ht="15" customHeight="1">
       <c r="A162" s="6">
-        <v>37741</v>
+        <v>37864</v>
       </c>
       <c r="B162" s="7">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="C162" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3576,14 +3603,14 @@
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1">
       <c r="A163" s="6">
-        <v>37711</v>
+        <v>37833</v>
       </c>
       <c r="B163" s="7">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="C163" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -3591,10 +3618,10 @@
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1">
       <c r="A164" s="6">
-        <v>37680</v>
+        <v>37802</v>
       </c>
       <c r="B164" s="7">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="C164" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3606,14 +3633,14 @@
     </row>
     <row r="165" spans="1:6" ht="15" customHeight="1">
       <c r="A165" s="6">
-        <v>37652</v>
+        <v>37772</v>
       </c>
       <c r="B165" s="7">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="C165" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -3621,7 +3648,7 @@
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1">
       <c r="A166" s="6">
-        <v>37621</v>
+        <v>37741</v>
       </c>
       <c r="B166" s="7">
         <v>4.25</v>
@@ -3636,7 +3663,7 @@
     </row>
     <row r="167" spans="1:6" ht="15" customHeight="1">
       <c r="A167" s="6">
-        <v>37590</v>
+        <v>37711</v>
       </c>
       <c r="B167" s="7">
         <v>4.25</v>
@@ -3651,7 +3678,7 @@
     </row>
     <row r="168" spans="1:6" ht="15" customHeight="1">
       <c r="A168" s="6">
-        <v>37560</v>
+        <v>37680</v>
       </c>
       <c r="B168" s="7">
         <v>4.25</v>
@@ -3666,7 +3693,7 @@
     </row>
     <row r="169" spans="1:6" ht="15" customHeight="1">
       <c r="A169" s="6">
-        <v>37529</v>
+        <v>37652</v>
       </c>
       <c r="B169" s="7">
         <v>4.25</v>
@@ -3681,7 +3708,7 @@
     </row>
     <row r="170" spans="1:6" ht="15" customHeight="1">
       <c r="A170" s="6">
-        <v>37499</v>
+        <v>37621</v>
       </c>
       <c r="B170" s="7">
         <v>4.25</v>
@@ -3696,7 +3723,7 @@
     </row>
     <row r="171" spans="1:6" ht="15" customHeight="1">
       <c r="A171" s="6">
-        <v>37468</v>
+        <v>37590</v>
       </c>
       <c r="B171" s="7">
         <v>4.25</v>
@@ -3711,7 +3738,7 @@
     </row>
     <row r="172" spans="1:6" ht="15" customHeight="1">
       <c r="A172" s="6">
-        <v>37437</v>
+        <v>37560</v>
       </c>
       <c r="B172" s="7">
         <v>4.25</v>
@@ -3726,14 +3753,14 @@
     </row>
     <row r="173" spans="1:6" ht="15" customHeight="1">
       <c r="A173" s="6">
-        <v>37407</v>
+        <v>37529</v>
       </c>
       <c r="B173" s="7">
         <v>4.25</v>
       </c>
       <c r="C173" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>UP</v>
+        <v>STAY</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -3741,10 +3768,10 @@
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1">
       <c r="A174" s="6">
-        <v>37376</v>
+        <v>37499</v>
       </c>
       <c r="B174" s="7">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="C174" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3756,10 +3783,10 @@
     </row>
     <row r="175" spans="1:6" ht="15" customHeight="1">
       <c r="A175" s="6">
-        <v>37346</v>
+        <v>37468</v>
       </c>
       <c r="B175" s="7">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="C175" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3771,10 +3798,10 @@
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1">
       <c r="A176" s="6">
-        <v>37315</v>
+        <v>37437</v>
       </c>
       <c r="B176" s="7">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="C176" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3786,14 +3813,14 @@
     </row>
     <row r="177" spans="1:6" ht="15" customHeight="1">
       <c r="A177" s="6">
-        <v>37287</v>
+        <v>37407</v>
       </c>
       <c r="B177" s="7">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="C177" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>STAY</v>
+        <v>UP</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -3801,7 +3828,7 @@
     </row>
     <row r="178" spans="1:6" ht="15" customHeight="1">
       <c r="A178" s="6">
-        <v>37256</v>
+        <v>37376</v>
       </c>
       <c r="B178" s="7">
         <v>4</v>
@@ -3816,7 +3843,7 @@
     </row>
     <row r="179" spans="1:6" ht="15" customHeight="1">
       <c r="A179" s="6">
-        <v>37225</v>
+        <v>37346</v>
       </c>
       <c r="B179" s="7">
         <v>4</v>
@@ -3831,7 +3858,7 @@
     </row>
     <row r="180" spans="1:6" ht="15" customHeight="1">
       <c r="A180" s="6">
-        <v>37195</v>
+        <v>37315</v>
       </c>
       <c r="B180" s="7">
         <v>4</v>
@@ -3846,14 +3873,14 @@
     </row>
     <row r="181" spans="1:6" ht="15" customHeight="1">
       <c r="A181" s="6">
-        <v>37164</v>
+        <v>37287</v>
       </c>
       <c r="B181" s="7">
         <v>4</v>
       </c>
       <c r="C181" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -3861,14 +3888,14 @@
     </row>
     <row r="182" spans="1:6" ht="15" customHeight="1">
       <c r="A182" s="6">
-        <v>37134</v>
+        <v>37256</v>
       </c>
       <c r="B182" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C182" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -3876,14 +3903,14 @@
     </row>
     <row r="183" spans="1:6" ht="15" customHeight="1">
       <c r="A183" s="6">
-        <v>37103</v>
+        <v>37225</v>
       </c>
       <c r="B183" s="7">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="C183" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -3891,10 +3918,10 @@
     </row>
     <row r="184" spans="1:6" ht="15" customHeight="1">
       <c r="A184" s="6">
-        <v>37072</v>
+        <v>37195</v>
       </c>
       <c r="B184" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C184" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3906,14 +3933,14 @@
     </row>
     <row r="185" spans="1:6" ht="15" customHeight="1">
       <c r="A185" s="6">
-        <v>37042</v>
+        <v>37164</v>
       </c>
       <c r="B185" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C185" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -3921,14 +3948,14 @@
     </row>
     <row r="186" spans="1:6" ht="15" customHeight="1">
       <c r="A186" s="6">
-        <v>37011</v>
+        <v>37134</v>
       </c>
       <c r="B186" s="7">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C186" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -3936,14 +3963,14 @@
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1">
       <c r="A187" s="6">
-        <v>36981</v>
+        <v>37103</v>
       </c>
       <c r="B187" s="7">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="C187" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>STAY</v>
+        <v>DOWN</v>
       </c>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -3951,14 +3978,14 @@
     </row>
     <row r="188" spans="1:6" ht="15" customHeight="1">
       <c r="A188" s="6">
-        <v>36950</v>
+        <v>37072</v>
       </c>
       <c r="B188" s="7">
         <v>5</v>
       </c>
       <c r="C188" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>DOWN</v>
+        <v>STAY</v>
       </c>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -3966,10 +3993,10 @@
     </row>
     <row r="189" spans="1:6" ht="15" customHeight="1">
       <c r="A189" s="6">
-        <v>36922</v>
+        <v>37042</v>
       </c>
       <c r="B189" s="7">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="C189" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3981,10 +4008,10 @@
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1">
       <c r="A190" s="6">
-        <v>36891</v>
+        <v>37011</v>
       </c>
       <c r="B190" s="7">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="C190" s="7" t="str">
         <f t="shared" si="2"/>
@@ -3996,10 +4023,10 @@
     </row>
     <row r="191" spans="1:6" ht="15" customHeight="1">
       <c r="A191" s="6">
-        <v>36860</v>
+        <v>36981</v>
       </c>
       <c r="B191" s="7">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="C191" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4011,14 +4038,14 @@
     </row>
     <row r="192" spans="1:6" ht="15" customHeight="1">
       <c r="A192" s="6">
-        <v>36830</v>
+        <v>36950</v>
       </c>
       <c r="B192" s="7">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="C192" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>UP</v>
+        <v>DOWN</v>
       </c>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -4026,10 +4053,10 @@
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1">
       <c r="A193" s="6">
-        <v>36799</v>
+        <v>36922</v>
       </c>
       <c r="B193" s="7">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="C193" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4041,13 +4068,13 @@
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1">
       <c r="A194" s="6">
-        <v>36769</v>
+        <v>36891</v>
       </c>
       <c r="B194" s="7">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="C194" s="7" t="str">
-        <f t="shared" ref="C194:C209" si="3">IF(B194-B195=0,"STAY",IF(B194&gt;B195,"UP","DOWN"))</f>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D194" s="7"/>
@@ -4056,13 +4083,13 @@
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1">
       <c r="A195" s="6">
-        <v>36738</v>
+        <v>36860</v>
       </c>
       <c r="B195" s="7">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="C195" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D195" s="7"/>
@@ -4071,14 +4098,14 @@
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1">
       <c r="A196" s="6">
-        <v>36707</v>
+        <v>36830</v>
       </c>
       <c r="B196" s="7">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="C196" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>STAY</v>
+        <f t="shared" si="2"/>
+        <v>UP</v>
       </c>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -4086,13 +4113,13 @@
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1">
       <c r="A197" s="6">
-        <v>36677</v>
+        <v>36799</v>
       </c>
       <c r="B197" s="7">
         <v>5</v>
       </c>
       <c r="C197" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D197" s="7"/>
@@ -4101,13 +4128,13 @@
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1">
       <c r="A198" s="6">
-        <v>36646</v>
+        <v>36769</v>
       </c>
       <c r="B198" s="7">
         <v>5</v>
       </c>
       <c r="C198" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C198:C213" si="3">IF(B198-B199=0,"STAY",IF(B198&gt;B199,"UP","DOWN"))</f>
         <v>STAY</v>
       </c>
       <c r="D198" s="7"/>
@@ -4116,7 +4143,7 @@
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1">
       <c r="A199" s="6">
-        <v>36616</v>
+        <v>36738</v>
       </c>
       <c r="B199" s="7">
         <v>5</v>
@@ -4131,14 +4158,14 @@
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1">
       <c r="A200" s="6">
-        <v>36585</v>
+        <v>36707</v>
       </c>
       <c r="B200" s="7">
         <v>5</v>
       </c>
       <c r="C200" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>UP</v>
+        <v>STAY</v>
       </c>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -4146,10 +4173,10 @@
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1">
       <c r="A201" s="6">
-        <v>36556</v>
+        <v>36677</v>
       </c>
       <c r="B201" s="7">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="C201" s="7" t="str">
         <f t="shared" si="3"/>
@@ -4161,10 +4188,10 @@
     </row>
     <row r="202" spans="1:6" ht="15" customHeight="1">
       <c r="A202" s="6">
-        <v>36525</v>
+        <v>36646</v>
       </c>
       <c r="B202" s="7">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="C202" s="7" t="str">
         <f t="shared" si="3"/>
@@ -4176,10 +4203,10 @@
     </row>
     <row r="203" spans="1:6" ht="15" customHeight="1">
       <c r="A203" s="6">
-        <v>36494</v>
+        <v>36616</v>
       </c>
       <c r="B203" s="7">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="C203" s="7" t="str">
         <f t="shared" si="3"/>
@@ -4191,14 +4218,14 @@
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1">
       <c r="A204" s="6">
-        <v>36464</v>
+        <v>36585</v>
       </c>
       <c r="B204" s="7">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="C204" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>STAY</v>
+        <v>UP</v>
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -4206,7 +4233,7 @@
     </row>
     <row r="205" spans="1:6" ht="15" customHeight="1">
       <c r="A205" s="6">
-        <v>36433</v>
+        <v>36556</v>
       </c>
       <c r="B205" s="7">
         <v>4.75</v>
@@ -4221,7 +4248,7 @@
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1">
       <c r="A206" s="6">
-        <v>36403</v>
+        <v>36525</v>
       </c>
       <c r="B206" s="7">
         <v>4.75</v>
@@ -4236,7 +4263,7 @@
     </row>
     <row r="207" spans="1:6" ht="15" customHeight="1">
       <c r="A207" s="6">
-        <v>36372</v>
+        <v>36494</v>
       </c>
       <c r="B207" s="7">
         <v>4.75</v>
@@ -4251,7 +4278,7 @@
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1">
       <c r="A208" s="6">
-        <v>36341</v>
+        <v>36464</v>
       </c>
       <c r="B208" s="7">
         <v>4.75</v>
@@ -4266,77 +4293,137 @@
     </row>
     <row r="209" spans="1:6" ht="15" customHeight="1">
       <c r="A209" s="6">
-        <v>36311</v>
+        <v>36433</v>
       </c>
       <c r="B209" s="7">
         <v>4.75</v>
       </c>
       <c r="C209" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>UP</v>
+        <v>STAY</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
     </row>
     <row r="210" spans="1:6" ht="15" customHeight="1">
-      <c r="A210" s="7"/>
-      <c r="B210" s="7"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7" t="s">
+      <c r="A210" s="6">
+        <v>36403</v>
+      </c>
+      <c r="B210" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="C210" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>STAY</v>
+      </c>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
+    </row>
+    <row r="211" spans="1:6" ht="15" customHeight="1">
+      <c r="A211" s="6">
+        <v>36372</v>
+      </c>
+      <c r="B211" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="C211" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>STAY</v>
+      </c>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+    </row>
+    <row r="212" spans="1:6" ht="15" customHeight="1">
+      <c r="A212" s="6">
+        <v>36341</v>
+      </c>
+      <c r="B212" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="C212" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>STAY</v>
+      </c>
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
+    </row>
+    <row r="213" spans="1:6" ht="15" customHeight="1">
+      <c r="A213" s="6">
+        <v>36311</v>
+      </c>
+      <c r="B213" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="C213" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>UP</v>
+      </c>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+    </row>
+    <row r="214" spans="1:6" ht="15" customHeight="1">
+      <c r="A214" s="7"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E210" s="7">
-        <f>COUNTIF($C$2:$C$209,"UP")</f>
+      <c r="E214" s="7">
+        <f>COUNTIF($C$6:$C$213,"UP")</f>
         <v>17</v>
       </c>
-      <c r="F210" s="8">
-        <f>E210/$E$213</f>
+      <c r="F214" s="8">
+        <f>E214/$E$217</f>
         <v>8.1730769230769232E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15" customHeight="1">
-      <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7" t="s">
+    <row r="215" spans="1:6" ht="15" customHeight="1">
+      <c r="A215" s="7"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E211" s="7">
-        <f>COUNTIF($C$2:$C$209,"DOWN")</f>
+      <c r="E215" s="7">
+        <f>COUNTIF($C$6:$C$213,"DOWN")</f>
         <v>21</v>
       </c>
-      <c r="F211" s="8">
-        <f t="shared" ref="F211:F212" si="4">E211/$E$213</f>
+      <c r="F215" s="8">
+        <f t="shared" ref="F215:F216" si="4">E215/$E$217</f>
         <v>0.10096153846153846</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15" customHeight="1">
-      <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7" t="s">
+    <row r="216" spans="1:6" ht="15" customHeight="1">
+      <c r="A216" s="7"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E212" s="7">
-        <f>COUNTIF($C$2:$C$209,"STAY")</f>
+      <c r="E216" s="7">
+        <f>COUNTIF($C$6:$C$213,"STAY")</f>
         <v>170</v>
       </c>
-      <c r="F212" s="8">
+      <c r="F216" s="8">
         <f t="shared" si="4"/>
         <v>0.81730769230769229</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15" customHeight="1">
-      <c r="A213" s="7"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7">
-        <f>SUM(E210:E212)</f>
+    <row r="217" spans="1:6" ht="15" customHeight="1">
+      <c r="A217" s="7"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7">
+        <f>SUM(E214:E216)</f>
         <v>208</v>
       </c>
-      <c r="F213" s="7"/>
+      <c r="F217" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/interestRate.xlsx
+++ b/interestRate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimmisuk/Documents/finance/monetary/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="11925"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="18180" windowHeight="11920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,10 +17,18 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$D$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$D$214</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$85</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -241,11 +254,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyymm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,11 +367,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,12 +423,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -437,14 +455,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -471,6 +490,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -646,23 +666,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -682,7 +702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>42735</v>
       </c>
@@ -690,7 +710,7 @@
         <v>1.25</v>
       </c>
       <c r="C2" s="7" t="str">
-        <f>IF(B2-B3=0,"STAY",IF(B2&gt;B3,"UP","DOWN"))</f>
+        <f t="shared" ref="C2:C7" si="0">IF(B2-B3=0,"STAY",IF(B2&gt;B3,"UP","DOWN"))</f>
         <v>STAY</v>
       </c>
       <c r="D2" s="7">
@@ -703,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>42704</v>
       </c>
@@ -711,7 +731,7 @@
         <v>1.25</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f>IF(B3-B4=0,"STAY",IF(B3&gt;B4,"UP","DOWN"))</f>
+        <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D3" s="7">
@@ -724,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>42674</v>
       </c>
@@ -732,7 +752,7 @@
         <v>1.25</v>
       </c>
       <c r="C4" s="7" t="str">
-        <f>IF(B4-B5=0,"STAY",IF(B4&gt;B5,"UP","DOWN"))</f>
+        <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D4" s="7">
@@ -745,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>42643</v>
       </c>
@@ -753,7 +773,7 @@
         <v>1.25</v>
       </c>
       <c r="C5" s="7" t="str">
-        <f>IF(B5-B6=0,"STAY",IF(B5&gt;B6,"UP","DOWN"))</f>
+        <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D5" s="7">
@@ -766,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>42613</v>
       </c>
@@ -774,7 +794,7 @@
         <v>1.25</v>
       </c>
       <c r="C6" s="7" t="str">
-        <f>IF(B6-B7=0,"STAY",IF(B6&gt;B7,"UP","DOWN"))</f>
+        <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D6" s="7">
@@ -787,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>42582</v>
       </c>
@@ -795,7 +815,7 @@
         <v>1.25</v>
       </c>
       <c r="C7" s="7" t="str">
-        <f>IF(B7-B8=0,"STAY",IF(B7&gt;B8,"UP","DOWN"))</f>
+        <f t="shared" si="0"/>
         <v>STAY</v>
       </c>
       <c r="D7" s="7">
@@ -808,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>42551</v>
       </c>
@@ -816,7 +836,7 @@
         <v>1.25</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f t="shared" ref="C8:C69" si="0">IF(B8-B9=0,"STAY",IF(B8&gt;B9,"UP","DOWN"))</f>
+        <f t="shared" ref="C8:C69" si="1">IF(B8-B9=0,"STAY",IF(B8&gt;B9,"UP","DOWN"))</f>
         <v>DOWN</v>
       </c>
       <c r="D8" s="7">
@@ -829,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>42521</v>
       </c>
@@ -837,7 +857,7 @@
         <v>1.5</v>
       </c>
       <c r="C9" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D9" s="7">
@@ -850,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>42490</v>
       </c>
@@ -858,7 +878,7 @@
         <v>1.5</v>
       </c>
       <c r="C10" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D10" s="7">
@@ -871,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>42460</v>
       </c>
@@ -879,7 +899,7 @@
         <v>1.5</v>
       </c>
       <c r="C11" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D11" s="7">
@@ -892,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>42429</v>
       </c>
@@ -900,7 +920,7 @@
         <v>1.5</v>
       </c>
       <c r="C12" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D12" s="7">
@@ -913,7 +933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>42400</v>
       </c>
@@ -921,7 +941,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D13" s="7">
@@ -934,7 +954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>42369</v>
       </c>
@@ -942,7 +962,7 @@
         <v>1.5</v>
       </c>
       <c r="C14" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D14" s="7">
@@ -955,7 +975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>42338</v>
       </c>
@@ -963,7 +983,7 @@
         <v>1.5</v>
       </c>
       <c r="C15" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D15" s="7">
@@ -976,7 +996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>42308</v>
       </c>
@@ -984,7 +1004,7 @@
         <v>1.5</v>
       </c>
       <c r="C16" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D16" s="7">
@@ -997,7 +1017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>42277</v>
       </c>
@@ -1005,7 +1025,7 @@
         <v>1.5</v>
       </c>
       <c r="C17" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D17" s="7">
@@ -1018,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>42247</v>
       </c>
@@ -1026,7 +1046,7 @@
         <v>1.5</v>
       </c>
       <c r="C18" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D18" s="7">
@@ -1039,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>42216</v>
       </c>
@@ -1047,7 +1067,7 @@
         <v>1.5</v>
       </c>
       <c r="C19" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D19" s="7">
@@ -1060,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>42185</v>
       </c>
@@ -1068,7 +1088,7 @@
         <v>1.5</v>
       </c>
       <c r="C20" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
       <c r="D20" s="7">
@@ -1081,7 +1101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>42155</v>
       </c>
@@ -1089,7 +1109,7 @@
         <v>1.75</v>
       </c>
       <c r="C21" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21-B22=0,"STAY",IF(B21&gt;B22,"UP","DOWN"))</f>
         <v>STAY</v>
       </c>
       <c r="D21" s="7">
@@ -1102,7 +1122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>42124</v>
       </c>
@@ -1110,7 +1130,7 @@
         <v>1.75</v>
       </c>
       <c r="C22" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D22" s="7">
@@ -1123,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>42094</v>
       </c>
@@ -1131,7 +1151,7 @@
         <v>1.75</v>
       </c>
       <c r="C23" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
       <c r="D23" s="7">
@@ -1144,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>42063</v>
       </c>
@@ -1152,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D24" s="7">
@@ -1165,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>42035</v>
       </c>
@@ -1173,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D25" s="7">
@@ -1186,7 +1206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>42004</v>
       </c>
@@ -1194,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D26" s="7">
@@ -1207,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>41973</v>
       </c>
@@ -1215,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D27" s="7">
@@ -1228,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>41943</v>
       </c>
@@ -1236,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
       <c r="D28" s="7">
@@ -1249,7 +1269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>41912</v>
       </c>
@@ -1257,7 +1277,7 @@
         <v>2.25</v>
       </c>
       <c r="C29" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D29" s="7">
@@ -1270,7 +1290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>41882</v>
       </c>
@@ -1278,7 +1298,7 @@
         <v>2.25</v>
       </c>
       <c r="C30" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
       <c r="D30" s="7">
@@ -1291,7 +1311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>41851</v>
       </c>
@@ -1299,7 +1319,7 @@
         <v>2.5</v>
       </c>
       <c r="C31" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D31" s="7">
@@ -1312,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>41820</v>
       </c>
@@ -1320,7 +1340,7 @@
         <v>2.5</v>
       </c>
       <c r="C32" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D32" s="7">
@@ -1333,7 +1353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>41790</v>
       </c>
@@ -1341,7 +1361,7 @@
         <v>2.5</v>
       </c>
       <c r="C33" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D33" s="7">
@@ -1354,7 +1374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>41759</v>
       </c>
@@ -1362,7 +1382,7 @@
         <v>2.5</v>
       </c>
       <c r="C34" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D34" s="7">
@@ -1375,7 +1395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>41729</v>
       </c>
@@ -1383,7 +1403,7 @@
         <v>2.5</v>
       </c>
       <c r="C35" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D35" s="7">
@@ -1396,7 +1416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>41698</v>
       </c>
@@ -1404,7 +1424,7 @@
         <v>2.5</v>
       </c>
       <c r="C36" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D36" s="7">
@@ -1417,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>41670</v>
       </c>
@@ -1425,7 +1445,7 @@
         <v>2.5</v>
       </c>
       <c r="C37" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D37" s="7">
@@ -1438,7 +1458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>41639</v>
       </c>
@@ -1446,7 +1466,7 @@
         <v>2.5</v>
       </c>
       <c r="C38" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D38" s="7">
@@ -1459,7 +1479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>41608</v>
       </c>
@@ -1467,7 +1487,7 @@
         <v>2.5</v>
       </c>
       <c r="C39" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D39" s="7">
@@ -1480,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>41578</v>
       </c>
@@ -1488,7 +1508,7 @@
         <v>2.5</v>
       </c>
       <c r="C40" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D40" s="7">
@@ -1501,7 +1521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>41547</v>
       </c>
@@ -1509,7 +1529,7 @@
         <v>2.5</v>
       </c>
       <c r="C41" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D41" s="7">
@@ -1522,7 +1542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41517</v>
       </c>
@@ -1530,7 +1550,7 @@
         <v>2.5</v>
       </c>
       <c r="C42" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D42" s="7">
@@ -1543,7 +1563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>41486</v>
       </c>
@@ -1551,7 +1571,7 @@
         <v>2.5</v>
       </c>
       <c r="C43" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D43" s="7">
@@ -1564,7 +1584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>41455</v>
       </c>
@@ -1572,7 +1592,7 @@
         <v>2.5</v>
       </c>
       <c r="C44" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D44" s="7">
@@ -1585,7 +1605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>41425</v>
       </c>
@@ -1593,7 +1613,7 @@
         <v>2.5</v>
       </c>
       <c r="C45" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
       <c r="D45" s="7">
@@ -1606,7 +1626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>41394</v>
       </c>
@@ -1614,7 +1634,7 @@
         <v>2.75</v>
       </c>
       <c r="C46" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D46" s="7">
@@ -1627,7 +1647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>41364</v>
       </c>
@@ -1635,7 +1655,7 @@
         <v>2.75</v>
       </c>
       <c r="C47" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D47" s="7">
@@ -1648,7 +1668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>41333</v>
       </c>
@@ -1656,7 +1676,7 @@
         <v>2.75</v>
       </c>
       <c r="C48" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D48" s="7">
@@ -1669,7 +1689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>41305</v>
       </c>
@@ -1677,7 +1697,7 @@
         <v>2.75</v>
       </c>
       <c r="C49" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D49" s="7">
@@ -1690,7 +1710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>41274</v>
       </c>
@@ -1698,7 +1718,7 @@
         <v>2.75</v>
       </c>
       <c r="C50" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D50" s="7">
@@ -1711,7 +1731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>41243</v>
       </c>
@@ -1719,7 +1739,7 @@
         <v>2.75</v>
       </c>
       <c r="C51" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D51" s="7">
@@ -1732,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>41213</v>
       </c>
@@ -1740,7 +1760,7 @@
         <v>2.75</v>
       </c>
       <c r="C52" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
       <c r="D52" s="7">
@@ -1753,7 +1773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>41182</v>
       </c>
@@ -1761,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D53" s="7">
@@ -1774,7 +1794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>41152</v>
       </c>
@@ -1782,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D54" s="7">
@@ -1795,7 +1815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>41121</v>
       </c>
@@ -1803,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
       <c r="D55" s="7">
@@ -1816,7 +1836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>41090</v>
       </c>
@@ -1824,7 +1844,7 @@
         <v>3.25</v>
       </c>
       <c r="C56" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D56" s="7">
@@ -1837,7 +1857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>41060</v>
       </c>
@@ -1845,7 +1865,7 @@
         <v>3.25</v>
       </c>
       <c r="C57" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D57" s="7">
@@ -1858,7 +1878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>41029</v>
       </c>
@@ -1866,7 +1886,7 @@
         <v>3.25</v>
       </c>
       <c r="C58" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D58" s="7">
@@ -1879,7 +1899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>40999</v>
       </c>
@@ -1887,7 +1907,7 @@
         <v>3.25</v>
       </c>
       <c r="C59" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D59" s="7">
@@ -1900,7 +1920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>40968</v>
       </c>
@@ -1908,7 +1928,7 @@
         <v>3.25</v>
       </c>
       <c r="C60" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D60" s="7">
@@ -1921,7 +1941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>40939</v>
       </c>
@@ -1929,7 +1949,7 @@
         <v>3.25</v>
       </c>
       <c r="C61" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D61" s="7">
@@ -1942,7 +1962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>40908</v>
       </c>
@@ -1950,7 +1970,7 @@
         <v>3.25</v>
       </c>
       <c r="C62" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D62" s="7">
@@ -1963,7 +1983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>40877</v>
       </c>
@@ -1971,7 +1991,7 @@
         <v>3.25</v>
       </c>
       <c r="C63" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D63" s="7">
@@ -1984,7 +2004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>40847</v>
       </c>
@@ -1992,7 +2012,7 @@
         <v>3.25</v>
       </c>
       <c r="C64" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D64" s="7">
@@ -2005,7 +2025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>40816</v>
       </c>
@@ -2013,7 +2033,7 @@
         <v>3.25</v>
       </c>
       <c r="C65" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D65" s="7">
@@ -2026,7 +2046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>40786</v>
       </c>
@@ -2034,7 +2054,7 @@
         <v>3.25</v>
       </c>
       <c r="C66" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D66" s="7">
@@ -2047,7 +2067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>40755</v>
       </c>
@@ -2055,7 +2075,7 @@
         <v>3.25</v>
       </c>
       <c r="C67" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D67" s="7">
@@ -2068,7 +2088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>40724</v>
       </c>
@@ -2076,7 +2096,7 @@
         <v>3.25</v>
       </c>
       <c r="C68" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>UP</v>
       </c>
       <c r="D68" s="7">
@@ -2089,7 +2109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>40694</v>
       </c>
@@ -2097,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STAY</v>
       </c>
       <c r="D69" s="7">
@@ -2110,7 +2130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>40663</v>
       </c>
@@ -2118,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="7" t="str">
-        <f t="shared" ref="C70:C133" si="1">IF(B70-B71=0,"STAY",IF(B70&gt;B71,"UP","DOWN"))</f>
+        <f t="shared" ref="C70:C133" si="2">IF(B70-B71=0,"STAY",IF(B70&gt;B71,"UP","DOWN"))</f>
         <v>STAY</v>
       </c>
       <c r="D70" s="7">
@@ -2131,7 +2151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40633</v>
       </c>
@@ -2139,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UP</v>
       </c>
       <c r="D71" s="7">
@@ -2152,7 +2172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40602</v>
       </c>
@@ -2160,7 +2180,7 @@
         <v>2.75</v>
       </c>
       <c r="C72" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D72" s="7">
@@ -2173,7 +2193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40574</v>
       </c>
@@ -2181,7 +2201,7 @@
         <v>2.75</v>
       </c>
       <c r="C73" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UP</v>
       </c>
       <c r="D73" s="7">
@@ -2194,7 +2214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40543</v>
       </c>
@@ -2202,7 +2222,7 @@
         <v>2.5</v>
       </c>
       <c r="C74" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D74" s="7">
@@ -2215,7 +2235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40512</v>
       </c>
@@ -2223,7 +2243,7 @@
         <v>2.5</v>
       </c>
       <c r="C75" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UP</v>
       </c>
       <c r="D75" s="7">
@@ -2236,7 +2256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40482</v>
       </c>
@@ -2244,7 +2264,7 @@
         <v>2.25</v>
       </c>
       <c r="C76" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D76" s="7">
@@ -2257,7 +2277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40451</v>
       </c>
@@ -2265,7 +2285,7 @@
         <v>2.25</v>
       </c>
       <c r="C77" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D77" s="7">
@@ -2278,7 +2298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40421</v>
       </c>
@@ -2286,7 +2306,7 @@
         <v>2.25</v>
       </c>
       <c r="C78" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D78" s="7">
@@ -2299,7 +2319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40390</v>
       </c>
@@ -2307,7 +2327,7 @@
         <v>2.25</v>
       </c>
       <c r="C79" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UP</v>
       </c>
       <c r="D79" s="7">
@@ -2320,7 +2340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40359</v>
       </c>
@@ -2328,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D80" s="7">
@@ -2341,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40329</v>
       </c>
@@ -2349,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D81" s="7">
@@ -2362,7 +2382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40298</v>
       </c>
@@ -2370,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D82" s="7">
@@ -2383,7 +2403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40268</v>
       </c>
@@ -2391,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="C83" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D83" s="7">
@@ -2404,7 +2424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40237</v>
       </c>
@@ -2412,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D84" s="7">
@@ -2425,7 +2445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40209</v>
       </c>
@@ -2433,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="C85" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D85" s="7">
@@ -2446,7 +2466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40178</v>
       </c>
@@ -2454,14 +2474,14 @@
         <v>2</v>
       </c>
       <c r="C86" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40147</v>
       </c>
@@ -2469,14 +2489,14 @@
         <v>2</v>
       </c>
       <c r="C87" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40117</v>
       </c>
@@ -2484,14 +2504,14 @@
         <v>2</v>
       </c>
       <c r="C88" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1">
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40086</v>
       </c>
@@ -2499,14 +2519,14 @@
         <v>2</v>
       </c>
       <c r="C89" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1">
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40056</v>
       </c>
@@ -2514,14 +2534,14 @@
         <v>2</v>
       </c>
       <c r="C90" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40025</v>
       </c>
@@ -2529,14 +2549,14 @@
         <v>2</v>
       </c>
       <c r="C91" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>39994</v>
       </c>
@@ -2544,14 +2564,14 @@
         <v>2</v>
       </c>
       <c r="C92" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>39964</v>
       </c>
@@ -2559,14 +2579,14 @@
         <v>2</v>
       </c>
       <c r="C93" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>39933</v>
       </c>
@@ -2574,14 +2594,14 @@
         <v>2</v>
       </c>
       <c r="C94" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>39903</v>
       </c>
@@ -2589,14 +2609,14 @@
         <v>2</v>
       </c>
       <c r="C95" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>39872</v>
       </c>
@@ -2604,14 +2624,14 @@
         <v>2</v>
       </c>
       <c r="C96" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DOWN</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1">
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>39844</v>
       </c>
@@ -2619,14 +2639,14 @@
         <v>2.5</v>
       </c>
       <c r="C97" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DOWN</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1">
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>39813</v>
       </c>
@@ -2634,14 +2654,14 @@
         <v>3</v>
       </c>
       <c r="C98" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DOWN</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1">
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>39782</v>
       </c>
@@ -2649,14 +2669,14 @@
         <v>4</v>
       </c>
       <c r="C99" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DOWN</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>39752</v>
       </c>
@@ -2664,14 +2684,14 @@
         <v>4.25</v>
       </c>
       <c r="C100" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DOWN</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1">
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>39721</v>
       </c>
@@ -2679,14 +2699,14 @@
         <v>5.25</v>
       </c>
       <c r="C101" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1">
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>39691</v>
       </c>
@@ -2694,14 +2714,14 @@
         <v>5.25</v>
       </c>
       <c r="C102" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UP</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1">
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>39660</v>
       </c>
@@ -2709,14 +2729,14 @@
         <v>5</v>
       </c>
       <c r="C103" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1">
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>39629</v>
       </c>
@@ -2724,14 +2744,14 @@
         <v>5</v>
       </c>
       <c r="C104" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1">
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>39599</v>
       </c>
@@ -2739,14 +2759,14 @@
         <v>5</v>
       </c>
       <c r="C105" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1">
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>39568</v>
       </c>
@@ -2754,14 +2774,14 @@
         <v>5</v>
       </c>
       <c r="C106" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1">
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>39538</v>
       </c>
@@ -2769,14 +2789,14 @@
         <v>5</v>
       </c>
       <c r="C107" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1">
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>39507</v>
       </c>
@@ -2784,14 +2804,14 @@
         <v>5</v>
       </c>
       <c r="C108" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1">
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>39478</v>
       </c>
@@ -2799,14 +2819,14 @@
         <v>5</v>
       </c>
       <c r="C109" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1">
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>39447</v>
       </c>
@@ -2814,14 +2834,14 @@
         <v>5</v>
       </c>
       <c r="C110" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1">
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>39416</v>
       </c>
@@ -2829,14 +2849,14 @@
         <v>5</v>
       </c>
       <c r="C111" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1">
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>39386</v>
       </c>
@@ -2844,14 +2864,14 @@
         <v>5</v>
       </c>
       <c r="C112" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1">
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>39355</v>
       </c>
@@ -2859,14 +2879,14 @@
         <v>5</v>
       </c>
       <c r="C113" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1">
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>39325</v>
       </c>
@@ -2874,14 +2894,14 @@
         <v>5</v>
       </c>
       <c r="C114" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UP</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1">
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>39294</v>
       </c>
@@ -2889,14 +2909,14 @@
         <v>4.75</v>
       </c>
       <c r="C115" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UP</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1">
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>39263</v>
       </c>
@@ -2904,14 +2924,14 @@
         <v>4.5</v>
       </c>
       <c r="C116" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1">
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>39233</v>
       </c>
@@ -2919,14 +2939,14 @@
         <v>4.5</v>
       </c>
       <c r="C117" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1">
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>39202</v>
       </c>
@@ -2934,14 +2954,14 @@
         <v>4.5</v>
       </c>
       <c r="C118" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1">
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>39172</v>
       </c>
@@ -2949,14 +2969,14 @@
         <v>4.5</v>
       </c>
       <c r="C119" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1">
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>39141</v>
       </c>
@@ -2964,14 +2984,14 @@
         <v>4.5</v>
       </c>
       <c r="C120" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1">
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>39113</v>
       </c>
@@ -2979,14 +2999,14 @@
         <v>4.5</v>
       </c>
       <c r="C121" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1">
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>39082</v>
       </c>
@@ -2994,14 +3014,14 @@
         <v>4.5</v>
       </c>
       <c r="C122" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1">
+    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>39051</v>
       </c>
@@ -3009,14 +3029,14 @@
         <v>4.5</v>
       </c>
       <c r="C123" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1">
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>39021</v>
       </c>
@@ -3024,14 +3044,14 @@
         <v>4.5</v>
       </c>
       <c r="C124" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1">
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>38990</v>
       </c>
@@ -3039,14 +3059,14 @@
         <v>4.5</v>
       </c>
       <c r="C125" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1">
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>38960</v>
       </c>
@@ -3054,14 +3074,14 @@
         <v>4.5</v>
       </c>
       <c r="C126" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UP</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1">
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>38929</v>
       </c>
@@ -3069,14 +3089,14 @@
         <v>4.25</v>
       </c>
       <c r="C127" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1">
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>38898</v>
       </c>
@@ -3084,14 +3104,14 @@
         <v>4.25</v>
       </c>
       <c r="C128" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UP</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1">
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>38868</v>
       </c>
@@ -3099,14 +3119,14 @@
         <v>4</v>
       </c>
       <c r="C129" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1">
+    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>38837</v>
       </c>
@@ -3114,14 +3134,14 @@
         <v>4</v>
       </c>
       <c r="C130" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1">
+    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>38807</v>
       </c>
@@ -3129,14 +3149,14 @@
         <v>4</v>
       </c>
       <c r="C131" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1">
+    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>38776</v>
       </c>
@@ -3144,14 +3164,14 @@
         <v>4</v>
       </c>
       <c r="C132" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UP</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1">
+    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>38748</v>
       </c>
@@ -3159,14 +3179,14 @@
         <v>3.75</v>
       </c>
       <c r="C133" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STAY</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1">
+    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>38717</v>
       </c>
@@ -3174,14 +3194,14 @@
         <v>3.75</v>
       </c>
       <c r="C134" s="7" t="str">
-        <f t="shared" ref="C134:C197" si="2">IF(B134-B135=0,"STAY",IF(B134&gt;B135,"UP","DOWN"))</f>
+        <f t="shared" ref="C134:C197" si="3">IF(B134-B135=0,"STAY",IF(B134&gt;B135,"UP","DOWN"))</f>
         <v>UP</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1">
+    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>38686</v>
       </c>
@@ -3189,14 +3209,14 @@
         <v>3.5</v>
       </c>
       <c r="C135" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1">
+    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>38656</v>
       </c>
@@ -3204,14 +3224,14 @@
         <v>3.5</v>
       </c>
       <c r="C136" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UP</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1">
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>38625</v>
       </c>
@@ -3219,14 +3239,14 @@
         <v>3.25</v>
       </c>
       <c r="C137" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1">
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>38595</v>
       </c>
@@ -3234,14 +3254,14 @@
         <v>3.25</v>
       </c>
       <c r="C138" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1">
+    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>38564</v>
       </c>
@@ -3249,14 +3269,14 @@
         <v>3.25</v>
       </c>
       <c r="C139" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1">
+    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>38533</v>
       </c>
@@ -3264,14 +3284,14 @@
         <v>3.25</v>
       </c>
       <c r="C140" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1">
+    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>38503</v>
       </c>
@@ -3279,14 +3299,14 @@
         <v>3.25</v>
       </c>
       <c r="C141" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1">
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>38472</v>
       </c>
@@ -3294,14 +3314,14 @@
         <v>3.25</v>
       </c>
       <c r="C142" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1">
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>38442</v>
       </c>
@@ -3309,14 +3329,14 @@
         <v>3.25</v>
       </c>
       <c r="C143" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1">
+    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>38411</v>
       </c>
@@ -3324,14 +3344,14 @@
         <v>3.25</v>
       </c>
       <c r="C144" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1">
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>38383</v>
       </c>
@@ -3339,14 +3359,14 @@
         <v>3.25</v>
       </c>
       <c r="C145" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1">
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>38352</v>
       </c>
@@ -3354,14 +3374,14 @@
         <v>3.25</v>
       </c>
       <c r="C146" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1">
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>38321</v>
       </c>
@@ -3369,14 +3389,14 @@
         <v>3.25</v>
       </c>
       <c r="C147" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DOWN</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1">
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>38291</v>
       </c>
@@ -3384,14 +3404,14 @@
         <v>3.5</v>
       </c>
       <c r="C148" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1">
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>38260</v>
       </c>
@@ -3399,14 +3419,14 @@
         <v>3.5</v>
       </c>
       <c r="C149" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1">
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>38230</v>
       </c>
@@ -3414,14 +3434,14 @@
         <v>3.5</v>
       </c>
       <c r="C150" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DOWN</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1">
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>38199</v>
       </c>
@@ -3429,14 +3449,14 @@
         <v>3.75</v>
       </c>
       <c r="C151" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1">
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>38168</v>
       </c>
@@ -3444,14 +3464,14 @@
         <v>3.75</v>
       </c>
       <c r="C152" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1">
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>38138</v>
       </c>
@@ -3459,14 +3479,14 @@
         <v>3.75</v>
       </c>
       <c r="C153" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1">
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>38107</v>
       </c>
@@ -3474,14 +3494,14 @@
         <v>3.75</v>
       </c>
       <c r="C154" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1">
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>38077</v>
       </c>
@@ -3489,14 +3509,14 @@
         <v>3.75</v>
       </c>
       <c r="C155" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1">
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>38046</v>
       </c>
@@ -3504,14 +3524,14 @@
         <v>3.75</v>
       </c>
       <c r="C156" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1">
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>38017</v>
       </c>
@@ -3519,14 +3539,14 @@
         <v>3.75</v>
       </c>
       <c r="C157" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1">
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>37986</v>
       </c>
@@ -3534,14 +3554,14 @@
         <v>3.75</v>
       </c>
       <c r="C158" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1">
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>37955</v>
       </c>
@@ -3549,14 +3569,14 @@
         <v>3.75</v>
       </c>
       <c r="C159" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1">
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>37925</v>
       </c>
@@ -3564,14 +3584,14 @@
         <v>3.75</v>
       </c>
       <c r="C160" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1">
+    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>37894</v>
       </c>
@@ -3579,14 +3599,14 @@
         <v>3.75</v>
       </c>
       <c r="C161" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1">
+    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>37864</v>
       </c>
@@ -3594,14 +3614,14 @@
         <v>3.75</v>
       </c>
       <c r="C162" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1">
+    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>37833</v>
       </c>
@@ -3609,14 +3629,14 @@
         <v>3.75</v>
       </c>
       <c r="C163" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DOWN</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1">
+    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>37802</v>
       </c>
@@ -3624,14 +3644,14 @@
         <v>4</v>
       </c>
       <c r="C164" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="1:6" ht="15" customHeight="1">
+    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>37772</v>
       </c>
@@ -3639,14 +3659,14 @@
         <v>4</v>
       </c>
       <c r="C165" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DOWN</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="1:6" ht="15" customHeight="1">
+    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>37741</v>
       </c>
@@ -3654,14 +3674,14 @@
         <v>4.25</v>
       </c>
       <c r="C166" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1">
+    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>37711</v>
       </c>
@@ -3669,14 +3689,14 @@
         <v>4.25</v>
       </c>
       <c r="C167" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:6" ht="15" customHeight="1">
+    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>37680</v>
       </c>
@@ -3684,14 +3704,14 @@
         <v>4.25</v>
       </c>
       <c r="C168" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="1:6" ht="15" customHeight="1">
+    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>37652</v>
       </c>
@@ -3699,14 +3719,14 @@
         <v>4.25</v>
       </c>
       <c r="C169" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" ht="15" customHeight="1">
+    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>37621</v>
       </c>
@@ -3714,14 +3734,14 @@
         <v>4.25</v>
       </c>
       <c r="C170" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6" ht="15" customHeight="1">
+    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>37590</v>
       </c>
@@ -3729,14 +3749,14 @@
         <v>4.25</v>
       </c>
       <c r="C171" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="1:6" ht="15" customHeight="1">
+    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>37560</v>
       </c>
@@ -3744,14 +3764,14 @@
         <v>4.25</v>
       </c>
       <c r="C172" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6" ht="15" customHeight="1">
+    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>37529</v>
       </c>
@@ -3759,14 +3779,14 @@
         <v>4.25</v>
       </c>
       <c r="C173" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1">
+    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>37499</v>
       </c>
@@ -3774,14 +3794,14 @@
         <v>4.25</v>
       </c>
       <c r="C174" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" ht="15" customHeight="1">
+    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>37468</v>
       </c>
@@ -3789,14 +3809,14 @@
         <v>4.25</v>
       </c>
       <c r="C175" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="1:6" ht="15" customHeight="1">
+    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>37437</v>
       </c>
@@ -3804,14 +3824,14 @@
         <v>4.25</v>
       </c>
       <c r="C176" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:6" ht="15" customHeight="1">
+    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>37407</v>
       </c>
@@ -3819,14 +3839,14 @@
         <v>4.25</v>
       </c>
       <c r="C177" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UP</v>
       </c>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="1:6" ht="15" customHeight="1">
+    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>37376</v>
       </c>
@@ -3834,14 +3854,14 @@
         <v>4</v>
       </c>
       <c r="C178" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" ht="15" customHeight="1">
+    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>37346</v>
       </c>
@@ -3849,14 +3869,14 @@
         <v>4</v>
       </c>
       <c r="C179" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="1:6" ht="15" customHeight="1">
+    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>37315</v>
       </c>
@@ -3864,14 +3884,14 @@
         <v>4</v>
       </c>
       <c r="C180" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6" ht="15" customHeight="1">
+    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>37287</v>
       </c>
@@ -3879,14 +3899,14 @@
         <v>4</v>
       </c>
       <c r="C181" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="1:6" ht="15" customHeight="1">
+    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>37256</v>
       </c>
@@ -3894,14 +3914,14 @@
         <v>4</v>
       </c>
       <c r="C182" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" ht="15" customHeight="1">
+    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>37225</v>
       </c>
@@ -3909,14 +3929,14 @@
         <v>4</v>
       </c>
       <c r="C183" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:6" ht="15" customHeight="1">
+    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>37195</v>
       </c>
@@ -3924,14 +3944,14 @@
         <v>4</v>
       </c>
       <c r="C184" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" ht="15" customHeight="1">
+    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>37164</v>
       </c>
@@ -3939,14 +3959,14 @@
         <v>4</v>
       </c>
       <c r="C185" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DOWN</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6" ht="15" customHeight="1">
+    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>37134</v>
       </c>
@@ -3954,14 +3974,14 @@
         <v>4.5</v>
       </c>
       <c r="C186" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DOWN</v>
       </c>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" ht="15" customHeight="1">
+    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>37103</v>
       </c>
@@ -3969,14 +3989,14 @@
         <v>4.75</v>
       </c>
       <c r="C187" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DOWN</v>
       </c>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:6" ht="15" customHeight="1">
+    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>37072</v>
       </c>
@@ -3984,14 +4004,14 @@
         <v>5</v>
       </c>
       <c r="C188" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="1:6" ht="15" customHeight="1">
+    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>37042</v>
       </c>
@@ -3999,14 +4019,14 @@
         <v>5</v>
       </c>
       <c r="C189" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="1:6" ht="15" customHeight="1">
+    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>37011</v>
       </c>
@@ -4014,14 +4034,14 @@
         <v>5</v>
       </c>
       <c r="C190" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" ht="15" customHeight="1">
+    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>36981</v>
       </c>
@@ -4029,14 +4049,14 @@
         <v>5</v>
       </c>
       <c r="C191" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:6" ht="15" customHeight="1">
+    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>36950</v>
       </c>
@@ -4044,14 +4064,14 @@
         <v>5</v>
       </c>
       <c r="C192" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DOWN</v>
       </c>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="1:6" ht="15" customHeight="1">
+    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>36922</v>
       </c>
@@ -4059,14 +4079,14 @@
         <v>5.25</v>
       </c>
       <c r="C193" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="1:6" ht="15" customHeight="1">
+    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>36891</v>
       </c>
@@ -4074,14 +4094,14 @@
         <v>5.25</v>
       </c>
       <c r="C194" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1">
+    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>36860</v>
       </c>
@@ -4089,14 +4109,14 @@
         <v>5.25</v>
       </c>
       <c r="C195" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1">
+    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>36830</v>
       </c>
@@ -4104,14 +4124,14 @@
         <v>5.25</v>
       </c>
       <c r="C196" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>UP</v>
       </c>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="1:6" ht="15" customHeight="1">
+    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>36799</v>
       </c>
@@ -4119,14 +4139,14 @@
         <v>5</v>
       </c>
       <c r="C197" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STAY</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1">
+    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>36769</v>
       </c>
@@ -4134,14 +4154,14 @@
         <v>5</v>
       </c>
       <c r="C198" s="7" t="str">
-        <f t="shared" ref="C198:C213" si="3">IF(B198-B199=0,"STAY",IF(B198&gt;B199,"UP","DOWN"))</f>
+        <f t="shared" ref="C198:C213" si="4">IF(B198-B199=0,"STAY",IF(B198&gt;B199,"UP","DOWN"))</f>
         <v>STAY</v>
       </c>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1">
+    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>36738</v>
       </c>
@@ -4149,14 +4169,14 @@
         <v>5</v>
       </c>
       <c r="C199" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="1:6" ht="15" customHeight="1">
+    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>36707</v>
       </c>
@@ -4164,14 +4184,14 @@
         <v>5</v>
       </c>
       <c r="C200" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="1:6" ht="15" customHeight="1">
+    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>36677</v>
       </c>
@@ -4179,14 +4199,14 @@
         <v>5</v>
       </c>
       <c r="C201" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="1:6" ht="15" customHeight="1">
+    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>36646</v>
       </c>
@@ -4194,14 +4214,14 @@
         <v>5</v>
       </c>
       <c r="C202" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
     </row>
-    <row r="203" spans="1:6" ht="15" customHeight="1">
+    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>36616</v>
       </c>
@@ -4209,14 +4229,14 @@
         <v>5</v>
       </c>
       <c r="C203" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" spans="1:6" ht="15" customHeight="1">
+    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>36585</v>
       </c>
@@ -4224,14 +4244,14 @@
         <v>5</v>
       </c>
       <c r="C204" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UP</v>
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="1:6" ht="15" customHeight="1">
+    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>36556</v>
       </c>
@@ -4239,14 +4259,14 @@
         <v>4.75</v>
       </c>
       <c r="C205" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
     </row>
-    <row r="206" spans="1:6" ht="15" customHeight="1">
+    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>36525</v>
       </c>
@@ -4254,14 +4274,14 @@
         <v>4.75</v>
       </c>
       <c r="C206" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="1:6" ht="15" customHeight="1">
+    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>36494</v>
       </c>
@@ -4269,14 +4289,14 @@
         <v>4.75</v>
       </c>
       <c r="C207" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="1:6" ht="15" customHeight="1">
+    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>36464</v>
       </c>
@@ -4284,14 +4304,14 @@
         <v>4.75</v>
       </c>
       <c r="C208" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="1:6" ht="15" customHeight="1">
+    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>36433</v>
       </c>
@@ -4299,14 +4319,14 @@
         <v>4.75</v>
       </c>
       <c r="C209" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="1:6" ht="15" customHeight="1">
+    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>36403</v>
       </c>
@@ -4314,14 +4334,14 @@
         <v>4.75</v>
       </c>
       <c r="C210" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="1:6" ht="15" customHeight="1">
+    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>36372</v>
       </c>
@@ -4329,14 +4349,14 @@
         <v>4.75</v>
       </c>
       <c r="C211" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:6" ht="15" customHeight="1">
+    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>36341</v>
       </c>
@@ -4344,14 +4364,14 @@
         <v>4.75</v>
       </c>
       <c r="C212" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STAY</v>
       </c>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="1:6" ht="15" customHeight="1">
+    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>36311</v>
       </c>
@@ -4359,14 +4379,14 @@
         <v>4.75</v>
       </c>
       <c r="C213" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>UP</v>
       </c>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
     </row>
-    <row r="214" spans="1:6" ht="15" customHeight="1">
+    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -4382,7 +4402,7 @@
         <v>8.1730769230769232E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15" customHeight="1">
+    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -4394,11 +4414,11 @@
         <v>21</v>
       </c>
       <c r="F215" s="8">
-        <f t="shared" ref="F215:F216" si="4">E215/$E$217</f>
+        <f t="shared" ref="F215:F216" si="5">E215/$E$217</f>
         <v>0.10096153846153846</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15" customHeight="1">
+    <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -4410,11 +4430,11 @@
         <v>170</v>
       </c>
       <c r="F216" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81730769230769229</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15" customHeight="1">
+    <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -4433,21 +4453,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B210"/>
+    <sheetView tabSelected="1" topLeftCell="B195" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4461,45 +4480,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1">
-      <c r="A2" s="3">
-        <v>42613</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <f>CONCATENATE(YEAR(A2),"0",MONTH(A2))</f>
-        <v>201608</v>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>201612</v>
+      </c>
+      <c r="B2" s="2">
+        <v>201612</v>
       </c>
       <c r="C2" s="1">
         <v>1.25</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IF(C2-C3=0,"STAY",IF(C2&gt;C3,"UP","DOWN"))</f>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1">
-      <c r="A3" s="3">
-        <v>42582</v>
-      </c>
-      <c r="B3" s="3" t="str">
-        <f>CONCATENATE(YEAR(A3),"0",MONTH(A3))</f>
-        <v>201607</v>
+        <f t="shared" ref="D2:D5" si="0">IF(C2-C3=0,"STAY",IF(C2&gt;C3,"UP","DOWN"))</f>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>201611</v>
+      </c>
+      <c r="B3" s="2">
+        <v>201611</v>
       </c>
       <c r="C3" s="1">
         <v>1.25</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D66" si="0">IF(C3-C4=0,"STAY",IF(C3&gt;C4,"UP","DOWN"))</f>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1">
-      <c r="A4" s="3">
-        <v>42580</v>
-      </c>
-      <c r="B4" s="3" t="str">
-        <f>CONCATENATE(YEAR(A4),"0",MONTH(A4))</f>
-        <v>201607</v>
+        <f t="shared" si="0"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>201610</v>
+      </c>
+      <c r="B4" s="2">
+        <v>201610</v>
       </c>
       <c r="C4" s="1">
         <v>1.25</v>
@@ -4509,3311 +4525,3366 @@
         <v>STAY</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
-        <v>42551</v>
-      </c>
-      <c r="B5" s="3" t="str">
-        <f>CONCATENATE(YEAR(A5),IF(LEN(MONTH(A5))&lt;2, "0",""),MONTH(A5))</f>
-        <v>201606</v>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>201609</v>
+      </c>
+      <c r="B5" s="2">
+        <v>201609</v>
       </c>
       <c r="C5" s="1">
         <v>1.25</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42613</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f>CONCATENATE(YEAR(A6),"0",MONTH(A6))</f>
+        <v>201608</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>IF(C6-C7=0,"STAY",IF(C6&gt;C7,"UP","DOWN"))</f>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42582</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f>CONCATENATE(YEAR(A7),"0",MONTH(A7))</f>
+        <v>201607</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" ref="D7:D70" si="1">IF(C7-C8=0,"STAY",IF(C7&gt;C8,"UP","DOWN"))</f>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42580</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>CONCATENATE(YEAR(A8),"0",MONTH(A8))</f>
+        <v>201607</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42551</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f>CONCATENATE(YEAR(A9),IF(LEN(MONTH(A9))&lt;2, "0",""),MONTH(A9))</f>
+        <v>201606</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1">
-      <c r="A6" s="3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>42521</v>
       </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" ref="B6:B16" si="1">CONCATENATE(YEAR(A6),"0",MONTH(A6))</f>
+      <c r="B10" s="3" t="str">
+        <f t="shared" ref="B10:B20" si="2">CONCATENATE(YEAR(A10),"0",MONTH(A10))</f>
         <v>201605</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1">
-      <c r="A7" s="3">
-        <v>42490</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>201604</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1">
-      <c r="A8" s="3">
-        <v>42460</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>201603</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1">
-      <c r="A9" s="3">
-        <v>42429</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>201602</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1">
-      <c r="A10" s="3">
-        <v>42400</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>201601</v>
       </c>
       <c r="C10" s="1">
         <v>1.5</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>42369</v>
+        <v>42490</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2015012</v>
+        <f t="shared" si="2"/>
+        <v>201604</v>
       </c>
       <c r="C11" s="1">
         <v>1.5</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>42338</v>
+        <v>42460</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2015011</v>
+        <f t="shared" si="2"/>
+        <v>201603</v>
       </c>
       <c r="C12" s="1">
         <v>1.5</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>42308</v>
+        <v>42429</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2015010</v>
+        <f t="shared" si="2"/>
+        <v>201602</v>
       </c>
       <c r="C13" s="1">
         <v>1.5</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>42277</v>
+        <v>42400</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>201509</v>
+        <f t="shared" si="2"/>
+        <v>201601</v>
       </c>
       <c r="C14" s="1">
         <v>1.5</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>42247</v>
+        <v>42369</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>201508</v>
+        <f t="shared" si="2"/>
+        <v>2015012</v>
       </c>
       <c r="C15" s="1">
         <v>1.5</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>42216</v>
+        <v>42338</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>201507</v>
+        <f t="shared" si="2"/>
+        <v>2015011</v>
       </c>
       <c r="C16" s="1">
         <v>1.5</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>42185</v>
+        <v>42308</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f>CONCATENATE(YEAR(A17),IF(LEN(MONTH(A17))&lt;2, "0",""),MONTH(A17))</f>
-        <v>201506</v>
+        <f t="shared" si="2"/>
+        <v>2015010</v>
       </c>
       <c r="C17" s="1">
         <v>1.5</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>42277</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>201509</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>42247</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>201508</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>42216</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>201507</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>42185</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>CONCATENATE(YEAR(A21),IF(LEN(MONTH(A21))&lt;2, "0",""),MONTH(A21))</f>
+        <v>201506</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
-      <c r="A18" s="3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>42155</v>
-      </c>
-      <c r="B18" s="3" t="str">
-        <f>CONCATENATE(YEAR(A18),"0",MONTH(A18))</f>
-        <v>201505</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1">
-      <c r="A19" s="3">
-        <v>42124</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <f>CONCATENATE(YEAR(A19),"0",MONTH(A19))</f>
-        <v>201504</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3">
-        <v>42094</v>
-      </c>
-      <c r="B20" s="3" t="str">
-        <f>CONCATENATE(YEAR(A20),IF(LEN(MONTH(A20))&lt;2, "0",""),MONTH(A20))</f>
-        <v>201503</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DOWN</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1">
-      <c r="A21" s="3">
-        <v>42063</v>
-      </c>
-      <c r="B21" s="3" t="str">
-        <f>CONCATENATE(YEAR(A21),"0",MONTH(A21))</f>
-        <v>201502</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1">
-      <c r="A22" s="3">
-        <v>42035</v>
       </c>
       <c r="B22" s="3" t="str">
         <f>CONCATENATE(YEAR(A22),"0",MONTH(A22))</f>
-        <v>201501</v>
+        <v>201505</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>42004</v>
+        <v>42124</v>
       </c>
       <c r="B23" s="3" t="str">
         <f>CONCATENATE(YEAR(A23),"0",MONTH(A23))</f>
-        <v>2014012</v>
+        <v>201504</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>41973</v>
+        <v>42094</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f>CONCATENATE(YEAR(A24),"0",MONTH(A24))</f>
-        <v>2014011</v>
+        <f>CONCATENATE(YEAR(A24),IF(LEN(MONTH(A24))&lt;2, "0",""),MONTH(A24))</f>
+        <v>201503</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>41943</v>
+        <v>42063</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f>CONCATENATE(YEAR(A25),IF(LEN(MONTH(A25))&lt;2, "0",""),MONTH(A25))</f>
-        <v>201410</v>
+        <f>CONCATENATE(YEAR(A25),"0",MONTH(A25))</f>
+        <v>201502</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DOWN</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>41912</v>
+        <v>42035</v>
       </c>
       <c r="B26" s="3" t="str">
         <f>CONCATENATE(YEAR(A26),"0",MONTH(A26))</f>
+        <v>201501</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>42004</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f>CONCATENATE(YEAR(A27),"0",MONTH(A27))</f>
+        <v>2014012</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>41973</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f>CONCATENATE(YEAR(A28),"0",MONTH(A28))</f>
+        <v>2014011</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>41943</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f>CONCATENATE(YEAR(A29),IF(LEN(MONTH(A29))&lt;2, "0",""),MONTH(A29))</f>
+        <v>201410</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>41912</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f>CONCATENATE(YEAR(A30),"0",MONTH(A30))</f>
         <v>201409</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C30" s="1">
         <v>2.25</v>
       </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>41882</v>
       </c>
-      <c r="B27" s="3" t="str">
-        <f>CONCATENATE(YEAR(A27),IF(LEN(MONTH(A27))&lt;2, "0",""),MONTH(A27))</f>
+      <c r="B31" s="3" t="str">
+        <f>CONCATENATE(YEAR(A31),IF(LEN(MONTH(A31))&lt;2, "0",""),MONTH(A31))</f>
         <v>201408</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C31" s="1">
         <v>2.25</v>
       </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
-      <c r="A28" s="3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>41851</v>
       </c>
-      <c r="B28" s="3" t="str">
-        <f t="shared" ref="B28:B41" si="2">CONCATENATE(YEAR(A28),"0",MONTH(A28))</f>
+      <c r="B32" s="3" t="str">
+        <f t="shared" ref="B32:B45" si="3">CONCATENATE(YEAR(A32),"0",MONTH(A32))</f>
         <v>201407</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1">
-      <c r="A29" s="3">
-        <v>41820</v>
-      </c>
-      <c r="B29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>201406</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1">
-      <c r="A30" s="3">
-        <v>41790</v>
-      </c>
-      <c r="B30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>201405</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1">
-      <c r="A31" s="3">
-        <v>41759</v>
-      </c>
-      <c r="B31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>201404</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1">
-      <c r="A32" s="3">
-        <v>41729</v>
-      </c>
-      <c r="B32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>201403</v>
       </c>
       <c r="C32" s="1">
         <v>2.5</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>41698</v>
+        <v>41820</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>201402</v>
+        <f t="shared" si="3"/>
+        <v>201406</v>
       </c>
       <c r="C33" s="1">
         <v>2.5</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>41670</v>
+        <v>41790</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>201401</v>
+        <f t="shared" si="3"/>
+        <v>201405</v>
       </c>
       <c r="C34" s="1">
         <v>2.5</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>41639</v>
+        <v>41759</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>2013012</v>
+        <f t="shared" si="3"/>
+        <v>201404</v>
       </c>
       <c r="C35" s="1">
         <v>2.5</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>41608</v>
+        <v>41729</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>2013011</v>
+        <f t="shared" si="3"/>
+        <v>201403</v>
       </c>
       <c r="C36" s="1">
         <v>2.5</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>41578</v>
+        <v>41698</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>2013010</v>
+        <f t="shared" si="3"/>
+        <v>201402</v>
       </c>
       <c r="C37" s="1">
         <v>2.5</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>41547</v>
+        <v>41670</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>201309</v>
+        <f t="shared" si="3"/>
+        <v>201401</v>
       </c>
       <c r="C38" s="1">
         <v>2.5</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>41517</v>
+        <v>41639</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>201308</v>
+        <f t="shared" si="3"/>
+        <v>2013012</v>
       </c>
       <c r="C39" s="1">
         <v>2.5</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>41486</v>
+        <v>41608</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>201307</v>
+        <f t="shared" si="3"/>
+        <v>2013011</v>
       </c>
       <c r="C40" s="1">
         <v>2.5</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>41455</v>
+        <v>41578</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>201306</v>
+        <f t="shared" si="3"/>
+        <v>2013010</v>
       </c>
       <c r="C41" s="1">
         <v>2.5</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>41425</v>
+        <v>41547</v>
       </c>
       <c r="B42" s="3" t="str">
-        <f>CONCATENATE(YEAR(A42),IF(LEN(MONTH(A42))&lt;2, "0",""),MONTH(A42))</f>
-        <v>201305</v>
+        <f t="shared" si="3"/>
+        <v>201309</v>
       </c>
       <c r="C42" s="1">
         <v>2.5</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DOWN</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>41394</v>
+        <v>41517</v>
       </c>
       <c r="B43" s="3" t="str">
-        <f t="shared" ref="B43:B48" si="3">CONCATENATE(YEAR(A43),"0",MONTH(A43))</f>
-        <v>201304</v>
+        <f t="shared" si="3"/>
+        <v>201308</v>
       </c>
       <c r="C43" s="1">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>41364</v>
+        <v>41486</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>201303</v>
+        <v>201307</v>
       </c>
       <c r="C44" s="1">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>41333</v>
+        <v>41455</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>201302</v>
+        <v>201306</v>
       </c>
       <c r="C45" s="1">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>41305</v>
+        <v>41425</v>
       </c>
       <c r="B46" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>201301</v>
+        <f>CONCATENATE(YEAR(A46),IF(LEN(MONTH(A46))&lt;2, "0",""),MONTH(A46))</f>
+        <v>201305</v>
       </c>
       <c r="C46" s="1">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>41274</v>
+        <v>41394</v>
       </c>
       <c r="B47" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>2012012</v>
+        <f t="shared" ref="B47:B52" si="4">CONCATENATE(YEAR(A47),"0",MONTH(A47))</f>
+        <v>201304</v>
       </c>
       <c r="C47" s="1">
         <v>2.75</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>41243</v>
+        <v>41364</v>
       </c>
       <c r="B48" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>2012011</v>
+        <f t="shared" si="4"/>
+        <v>201303</v>
       </c>
       <c r="C48" s="1">
         <v>2.75</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>41213</v>
+        <v>41333</v>
       </c>
       <c r="B49" s="3" t="str">
-        <f>CONCATENATE(YEAR(A49),IF(LEN(MONTH(A49))&lt;2, "0",""),MONTH(A49))</f>
-        <v>201210</v>
+        <f t="shared" si="4"/>
+        <v>201302</v>
       </c>
       <c r="C49" s="1">
         <v>2.75</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>41305</v>
+      </c>
+      <c r="B50" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>201301</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>41274</v>
+      </c>
+      <c r="B51" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>2012012</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>41243</v>
+      </c>
+      <c r="B52" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>2012011</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>41213</v>
+      </c>
+      <c r="B53" s="3" t="str">
+        <f>CONCATENATE(YEAR(A53),IF(LEN(MONTH(A53))&lt;2, "0",""),MONTH(A53))</f>
+        <v>201210</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1">
-      <c r="A50" s="3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>41182</v>
       </c>
-      <c r="B50" s="3" t="str">
-        <f>CONCATENATE(YEAR(A50),"0",MONTH(A50))</f>
+      <c r="B54" s="3" t="str">
+        <f>CONCATENATE(YEAR(A54),"0",MONTH(A54))</f>
         <v>201209</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C54" s="1">
         <v>3</v>
       </c>
-      <c r="D50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1">
-      <c r="A51" s="3">
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>41152</v>
       </c>
-      <c r="B51" s="3" t="str">
-        <f>CONCATENATE(YEAR(A51),"0",MONTH(A51))</f>
+      <c r="B55" s="3" t="str">
+        <f>CONCATENATE(YEAR(A55),"0",MONTH(A55))</f>
         <v>201208</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C55" s="1">
         <v>3</v>
       </c>
-      <c r="D51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3">
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>41121</v>
       </c>
-      <c r="B52" s="3" t="str">
-        <f>CONCATENATE(YEAR(A52),IF(LEN(MONTH(A52))&lt;2, "0",""),MONTH(A52))</f>
+      <c r="B56" s="3" t="str">
+        <f>CONCATENATE(YEAR(A56),IF(LEN(MONTH(A56))&lt;2, "0",""),MONTH(A56))</f>
         <v>201207</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C56" s="1">
         <v>3</v>
       </c>
-      <c r="D52" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>DOWN</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1">
-      <c r="A53" s="3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>41090</v>
       </c>
-      <c r="B53" s="3" t="str">
-        <f t="shared" ref="B53:B64" si="4">CONCATENATE(YEAR(A53),"0",MONTH(A53))</f>
+      <c r="B57" s="3" t="str">
+        <f t="shared" ref="B57:B68" si="5">CONCATENATE(YEAR(A57),"0",MONTH(A57))</f>
         <v>201206</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="D53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1">
-      <c r="A54" s="3">
-        <v>41060</v>
-      </c>
-      <c r="B54" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>201205</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="D54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1">
-      <c r="A55" s="3">
-        <v>41029</v>
-      </c>
-      <c r="B55" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>201204</v>
-      </c>
-      <c r="C55" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="D55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1">
-      <c r="A56" s="3">
-        <v>40999</v>
-      </c>
-      <c r="B56" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>201203</v>
-      </c>
-      <c r="C56" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="D56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1">
-      <c r="A57" s="3">
-        <v>40968</v>
-      </c>
-      <c r="B57" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>201202</v>
       </c>
       <c r="C57" s="1">
         <v>3.25</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>40939</v>
+        <v>41060</v>
       </c>
       <c r="B58" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>201201</v>
+        <f t="shared" si="5"/>
+        <v>201205</v>
       </c>
       <c r="C58" s="1">
         <v>3.25</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>40908</v>
+        <v>41029</v>
       </c>
       <c r="B59" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>2011012</v>
+        <f t="shared" si="5"/>
+        <v>201204</v>
       </c>
       <c r="C59" s="1">
         <v>3.25</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>40877</v>
+        <v>40999</v>
       </c>
       <c r="B60" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>2011011</v>
+        <f t="shared" si="5"/>
+        <v>201203</v>
       </c>
       <c r="C60" s="1">
         <v>3.25</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>40847</v>
+        <v>40968</v>
       </c>
       <c r="B61" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>2011010</v>
+        <f t="shared" si="5"/>
+        <v>201202</v>
       </c>
       <c r="C61" s="1">
         <v>3.25</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>40816</v>
+        <v>40939</v>
       </c>
       <c r="B62" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>201109</v>
+        <f t="shared" si="5"/>
+        <v>201201</v>
       </c>
       <c r="C62" s="1">
         <v>3.25</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>40786</v>
+        <v>40908</v>
       </c>
       <c r="B63" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>201108</v>
+        <f t="shared" si="5"/>
+        <v>2011012</v>
       </c>
       <c r="C63" s="1">
         <v>3.25</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>40755</v>
+        <v>40877</v>
       </c>
       <c r="B64" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>201107</v>
+        <f t="shared" si="5"/>
+        <v>2011011</v>
       </c>
       <c r="C64" s="1">
         <v>3.25</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>40724</v>
+        <v>40847</v>
       </c>
       <c r="B65" s="3" t="str">
-        <f>CONCATENATE(YEAR(A65),IF(LEN(MONTH(A65))&lt;2, "0",""),MONTH(A65))</f>
-        <v>201106</v>
+        <f t="shared" si="5"/>
+        <v>2011010</v>
       </c>
       <c r="C65" s="1">
         <v>3.25</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>40816</v>
+      </c>
+      <c r="B66" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>201109</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>40786</v>
+      </c>
+      <c r="B67" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>201108</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>40755</v>
+      </c>
+      <c r="B68" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>201107</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>40724</v>
+      </c>
+      <c r="B69" s="3" t="str">
+        <f>CONCATENATE(YEAR(A69),IF(LEN(MONTH(A69))&lt;2, "0",""),MONTH(A69))</f>
+        <v>201106</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>UP</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1">
-      <c r="A66" s="3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>40694</v>
       </c>
-      <c r="B66" s="3" t="str">
-        <f>CONCATENATE(YEAR(A66),"0",MONTH(A66))</f>
+      <c r="B70" s="3" t="str">
+        <f>CONCATENATE(YEAR(A70),"0",MONTH(A70))</f>
         <v>201105</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C70" s="1">
         <v>3</v>
       </c>
-      <c r="D66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1">
-      <c r="A67" s="3">
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>40663</v>
-      </c>
-      <c r="B67" s="3" t="str">
-        <f>CONCATENATE(YEAR(A67),"0",MONTH(A67))</f>
-        <v>201104</v>
-      </c>
-      <c r="C67" s="1">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1" t="str">
-        <f t="shared" ref="D67:D130" si="5">IF(C67-C68=0,"STAY",IF(C67&gt;C68,"UP","DOWN"))</f>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="3">
-        <v>40633</v>
-      </c>
-      <c r="B68" s="3" t="str">
-        <f>CONCATENATE(YEAR(A68),IF(LEN(MONTH(A68))&lt;2, "0",""),MONTH(A68))</f>
-        <v>201103</v>
-      </c>
-      <c r="C68" s="1">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>UP</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1">
-      <c r="A69" s="3">
-        <v>40602</v>
-      </c>
-      <c r="B69" s="3" t="str">
-        <f>CONCATENATE(YEAR(A69),"0",MONTH(A69))</f>
-        <v>201102</v>
-      </c>
-      <c r="C69" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="D69" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="3">
-        <v>40574</v>
-      </c>
-      <c r="B70" s="3" t="str">
-        <f>CONCATENATE(YEAR(A70),IF(LEN(MONTH(A70))&lt;2, "0",""),MONTH(A70))</f>
-        <v>201101</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="D70" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>UP</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1">
-      <c r="A71" s="3">
-        <v>40543</v>
       </c>
       <c r="B71" s="3" t="str">
         <f>CONCATENATE(YEAR(A71),"0",MONTH(A71))</f>
-        <v>2010012</v>
+        <v>201104</v>
       </c>
       <c r="C71" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <f t="shared" ref="D71:D134" si="6">IF(C71-C72=0,"STAY",IF(C71&gt;C72,"UP","DOWN"))</f>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>40512</v>
+        <v>40633</v>
       </c>
       <c r="B72" s="3" t="str">
         <f>CONCATENATE(YEAR(A72),IF(LEN(MONTH(A72))&lt;2, "0",""),MONTH(A72))</f>
-        <v>201011</v>
+        <v>201103</v>
       </c>
       <c r="C72" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UP</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>40482</v>
+        <v>40602</v>
       </c>
       <c r="B73" s="3" t="str">
         <f>CONCATENATE(YEAR(A73),"0",MONTH(A73))</f>
-        <v>2010010</v>
+        <v>201102</v>
       </c>
       <c r="C73" s="1">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>40451</v>
+        <v>40574</v>
       </c>
       <c r="B74" s="3" t="str">
-        <f>CONCATENATE(YEAR(A74),"0",MONTH(A74))</f>
-        <v>201009</v>
+        <f>CONCATENATE(YEAR(A74),IF(LEN(MONTH(A74))&lt;2, "0",""),MONTH(A74))</f>
+        <v>201101</v>
       </c>
       <c r="C74" s="1">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>UP</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>40421</v>
+        <v>40543</v>
       </c>
       <c r="B75" s="3" t="str">
         <f>CONCATENATE(YEAR(A75),"0",MONTH(A75))</f>
-        <v>201008</v>
+        <v>2010012</v>
       </c>
       <c r="C75" s="1">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>40390</v>
+        <v>40512</v>
       </c>
       <c r="B76" s="3" t="str">
         <f>CONCATENATE(YEAR(A76),IF(LEN(MONTH(A76))&lt;2, "0",""),MONTH(A76))</f>
+        <v>201011</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>UP</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>40482</v>
+      </c>
+      <c r="B77" s="3" t="str">
+        <f>CONCATENATE(YEAR(A77),"0",MONTH(A77))</f>
+        <v>2010010</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>40451</v>
+      </c>
+      <c r="B78" s="3" t="str">
+        <f>CONCATENATE(YEAR(A78),"0",MONTH(A78))</f>
+        <v>201009</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>40421</v>
+      </c>
+      <c r="B79" s="3" t="str">
+        <f>CONCATENATE(YEAR(A79),"0",MONTH(A79))</f>
+        <v>201008</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>40390</v>
+      </c>
+      <c r="B80" s="3" t="str">
+        <f>CONCATENATE(YEAR(A80),IF(LEN(MONTH(A80))&lt;2, "0",""),MONTH(A80))</f>
         <v>201007</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C80" s="1">
         <v>2.25</v>
       </c>
-      <c r="D76" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>UP</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1">
-      <c r="A77" s="3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>40359</v>
       </c>
-      <c r="B77" s="3" t="str">
-        <f t="shared" ref="B77:B92" si="6">CONCATENATE(YEAR(A77),"0",MONTH(A77))</f>
+      <c r="B81" s="3" t="str">
+        <f t="shared" ref="B81:B96" si="7">CONCATENATE(YEAR(A81),"0",MONTH(A81))</f>
         <v>201006</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2</v>
-      </c>
-      <c r="D77" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1">
-      <c r="A78" s="3">
-        <v>40329</v>
-      </c>
-      <c r="B78" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>201005</v>
-      </c>
-      <c r="C78" s="1">
-        <v>2</v>
-      </c>
-      <c r="D78" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1">
-      <c r="A79" s="3">
-        <v>40298</v>
-      </c>
-      <c r="B79" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>201004</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2</v>
-      </c>
-      <c r="D79" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1">
-      <c r="A80" s="3">
-        <v>40268</v>
-      </c>
-      <c r="B80" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>201003</v>
-      </c>
-      <c r="C80" s="1">
-        <v>2</v>
-      </c>
-      <c r="D80" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1">
-      <c r="A81" s="3">
-        <v>40237</v>
-      </c>
-      <c r="B81" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>201002</v>
       </c>
       <c r="C81" s="1">
         <v>2</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>40209</v>
+        <v>40329</v>
       </c>
       <c r="B82" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>201001</v>
+        <f t="shared" si="7"/>
+        <v>201005</v>
       </c>
       <c r="C82" s="1">
         <v>2</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>40178</v>
+        <v>40298</v>
       </c>
       <c r="B83" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>2009012</v>
+        <f t="shared" si="7"/>
+        <v>201004</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>40147</v>
+        <v>40268</v>
       </c>
       <c r="B84" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>2009011</v>
+        <f t="shared" si="7"/>
+        <v>201003</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>40117</v>
+        <v>40237</v>
       </c>
       <c r="B85" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>2009010</v>
+        <f t="shared" si="7"/>
+        <v>201002</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>40086</v>
+        <v>40209</v>
       </c>
       <c r="B86" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>200909</v>
+        <f t="shared" si="7"/>
+        <v>201001</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>40056</v>
+        <v>40178</v>
       </c>
       <c r="B87" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>200908</v>
+        <f t="shared" si="7"/>
+        <v>2009012</v>
       </c>
       <c r="C87" s="1">
         <v>2</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>40025</v>
+        <v>40147</v>
       </c>
       <c r="B88" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>200907</v>
+        <f t="shared" si="7"/>
+        <v>2009011</v>
       </c>
       <c r="C88" s="1">
         <v>2</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>39994</v>
+        <v>40117</v>
       </c>
       <c r="B89" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>200906</v>
+        <f t="shared" si="7"/>
+        <v>2009010</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>39964</v>
+        <v>40086</v>
       </c>
       <c r="B90" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>200905</v>
+        <f t="shared" si="7"/>
+        <v>200909</v>
       </c>
       <c r="C90" s="1">
         <v>2</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>39933</v>
+        <v>40056</v>
       </c>
       <c r="B91" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>200904</v>
+        <f t="shared" si="7"/>
+        <v>200908</v>
       </c>
       <c r="C91" s="1">
         <v>2</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>39903</v>
+        <v>40025</v>
       </c>
       <c r="B92" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>200903</v>
+        <f t="shared" si="7"/>
+        <v>200907</v>
       </c>
       <c r="C92" s="1">
         <v>2</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>39872</v>
+        <v>39994</v>
       </c>
       <c r="B93" s="3" t="str">
-        <f t="shared" ref="B93:B97" si="7">CONCATENATE(YEAR(A93),IF(LEN(MONTH(A93))&lt;2, "0",""),MONTH(A93))</f>
-        <v>200902</v>
+        <f t="shared" si="7"/>
+        <v>200906</v>
       </c>
       <c r="C93" s="1">
         <v>2</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>DOWN</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>39844</v>
+        <v>39964</v>
       </c>
       <c r="B94" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>200901</v>
+        <v>200905</v>
       </c>
       <c r="C94" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>DOWN</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>39813</v>
+        <v>39933</v>
       </c>
       <c r="B95" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>200812</v>
+        <v>200904</v>
       </c>
       <c r="C95" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>DOWN</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>39782</v>
+        <v>39903</v>
       </c>
       <c r="B96" s="3" t="str">
         <f t="shared" si="7"/>
+        <v>200903</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>39872</v>
+      </c>
+      <c r="B97" s="3" t="str">
+        <f t="shared" ref="B97:B101" si="8">CONCATENATE(YEAR(A97),IF(LEN(MONTH(A97))&lt;2, "0",""),MONTH(A97))</f>
+        <v>200902</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>DOWN</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>39844</v>
+      </c>
+      <c r="B98" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>200901</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>DOWN</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>39813</v>
+      </c>
+      <c r="B99" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>200812</v>
+      </c>
+      <c r="C99" s="1">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>DOWN</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>39782</v>
+      </c>
+      <c r="B100" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>200811</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C100" s="1">
         <v>4</v>
       </c>
-      <c r="D96" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="D100" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>DOWN</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>39752</v>
-      </c>
-      <c r="B97" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>200810</v>
-      </c>
-      <c r="C97" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="D97" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>DOWN</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1">
-      <c r="A98" s="3">
-        <v>39721</v>
-      </c>
-      <c r="B98" s="3" t="str">
-        <f>CONCATENATE(YEAR(A98),"0",MONTH(A98))</f>
-        <v>200809</v>
-      </c>
-      <c r="C98" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="D98" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="3">
-        <v>39691</v>
-      </c>
-      <c r="B99" s="3" t="str">
-        <f>CONCATENATE(YEAR(A99),IF(LEN(MONTH(A99))&lt;2, "0",""),MONTH(A99))</f>
-        <v>200808</v>
-      </c>
-      <c r="C99" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="D99" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>UP</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1">
-      <c r="A100" s="3">
-        <v>39660</v>
-      </c>
-      <c r="B100" s="3" t="str">
-        <f t="shared" ref="B100:B110" si="8">CONCATENATE(YEAR(A100),"0",MONTH(A100))</f>
-        <v>200807</v>
-      </c>
-      <c r="C100" s="1">
-        <v>5</v>
-      </c>
-      <c r="D100" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1">
-      <c r="A101" s="3">
-        <v>39629</v>
       </c>
       <c r="B101" s="3" t="str">
         <f t="shared" si="8"/>
+        <v>200810</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>DOWN</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>39721</v>
+      </c>
+      <c r="B102" s="3" t="str">
+        <f>CONCATENATE(YEAR(A102),"0",MONTH(A102))</f>
+        <v>200809</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>39691</v>
+      </c>
+      <c r="B103" s="3" t="str">
+        <f>CONCATENATE(YEAR(A103),IF(LEN(MONTH(A103))&lt;2, "0",""),MONTH(A103))</f>
+        <v>200808</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>UP</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>39660</v>
+      </c>
+      <c r="B104" s="3" t="str">
+        <f t="shared" ref="B104:B114" si="9">CONCATENATE(YEAR(A104),"0",MONTH(A104))</f>
+        <v>200807</v>
+      </c>
+      <c r="C104" s="1">
+        <v>5</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>39629</v>
+      </c>
+      <c r="B105" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>200806</v>
       </c>
-      <c r="C101" s="1">
-        <v>5</v>
-      </c>
-      <c r="D101" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1">
-      <c r="A102" s="3">
+      <c r="C105" s="1">
+        <v>5</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>39599</v>
       </c>
-      <c r="B102" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="B106" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>200805</v>
       </c>
-      <c r="C102" s="1">
-        <v>5</v>
-      </c>
-      <c r="D102" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1">
-      <c r="A103" s="3">
+      <c r="C106" s="1">
+        <v>5</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>39568</v>
       </c>
-      <c r="B103" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="B107" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>200804</v>
       </c>
-      <c r="C103" s="1">
-        <v>5</v>
-      </c>
-      <c r="D103" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1">
-      <c r="A104" s="3">
+      <c r="C107" s="1">
+        <v>5</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>39538</v>
       </c>
-      <c r="B104" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="B108" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>200803</v>
       </c>
-      <c r="C104" s="1">
-        <v>5</v>
-      </c>
-      <c r="D104" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1">
-      <c r="A105" s="3">
+      <c r="C108" s="1">
+        <v>5</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>39507</v>
       </c>
-      <c r="B105" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="B109" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>200802</v>
       </c>
-      <c r="C105" s="1">
-        <v>5</v>
-      </c>
-      <c r="D105" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1">
-      <c r="A106" s="3">
+      <c r="C109" s="1">
+        <v>5</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>39478</v>
       </c>
-      <c r="B106" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="B110" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>200801</v>
       </c>
-      <c r="C106" s="1">
-        <v>5</v>
-      </c>
-      <c r="D106" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" hidden="1">
-      <c r="A107" s="3">
+      <c r="C110" s="1">
+        <v>5</v>
+      </c>
+      <c r="D110" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>39447</v>
       </c>
-      <c r="B107" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="B111" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>2007012</v>
       </c>
-      <c r="C107" s="1">
-        <v>5</v>
-      </c>
-      <c r="D107" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1">
-      <c r="A108" s="3">
+      <c r="C111" s="1">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>39416</v>
-      </c>
-      <c r="B108" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>2007011</v>
-      </c>
-      <c r="C108" s="1">
-        <v>5</v>
-      </c>
-      <c r="D108" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1">
-      <c r="A109" s="3">
-        <v>39386</v>
-      </c>
-      <c r="B109" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>2007010</v>
-      </c>
-      <c r="C109" s="1">
-        <v>5</v>
-      </c>
-      <c r="D109" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1">
-      <c r="A110" s="3">
-        <v>39355</v>
-      </c>
-      <c r="B110" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>200709</v>
-      </c>
-      <c r="C110" s="1">
-        <v>5</v>
-      </c>
-      <c r="D110" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="3">
-        <v>39325</v>
-      </c>
-      <c r="B111" s="3" t="str">
-        <f t="shared" ref="B111:B112" si="9">CONCATENATE(YEAR(A111),IF(LEN(MONTH(A111))&lt;2, "0",""),MONTH(A111))</f>
-        <v>200708</v>
-      </c>
-      <c r="C111" s="1">
-        <v>5</v>
-      </c>
-      <c r="D111" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>UP</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="3">
-        <v>39294</v>
       </c>
       <c r="B112" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>200707</v>
+        <v>2007011</v>
       </c>
       <c r="C112" s="1">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D112" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>39386</v>
+      </c>
+      <c r="B113" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>2007010</v>
+      </c>
+      <c r="C113" s="1">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>39355</v>
+      </c>
+      <c r="B114" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>200709</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>39325</v>
+      </c>
+      <c r="B115" s="3" t="str">
+        <f t="shared" ref="B115:B116" si="10">CONCATENATE(YEAR(A115),IF(LEN(MONTH(A115))&lt;2, "0",""),MONTH(A115))</f>
+        <v>200708</v>
+      </c>
+      <c r="C115" s="1">
+        <v>5</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>UP</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1">
-      <c r="A113" s="3">
-        <v>39263</v>
-      </c>
-      <c r="B113" s="3" t="str">
-        <f t="shared" ref="B113:B122" si="10">CONCATENATE(YEAR(A113),"0",MONTH(A113))</f>
-        <v>200706</v>
-      </c>
-      <c r="C113" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D113" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1">
-      <c r="A114" s="3">
-        <v>39233</v>
-      </c>
-      <c r="B114" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>200705</v>
-      </c>
-      <c r="C114" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D114" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1">
-      <c r="A115" s="3">
-        <v>39202</v>
-      </c>
-      <c r="B115" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>200704</v>
-      </c>
-      <c r="C115" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D115" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>39172</v>
+        <v>39294</v>
       </c>
       <c r="B116" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>200703</v>
+        <v>200707</v>
       </c>
       <c r="C116" s="1">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>UP</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>39141</v>
+        <v>39263</v>
       </c>
       <c r="B117" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>200702</v>
+        <f t="shared" ref="B117:B126" si="11">CONCATENATE(YEAR(A117),"0",MONTH(A117))</f>
+        <v>200706</v>
       </c>
       <c r="C117" s="1">
         <v>4.5</v>
       </c>
       <c r="D117" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>39113</v>
+        <v>39233</v>
       </c>
       <c r="B118" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>200701</v>
+        <f t="shared" si="11"/>
+        <v>200705</v>
       </c>
       <c r="C118" s="1">
         <v>4.5</v>
       </c>
       <c r="D118" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>39082</v>
+        <v>39202</v>
       </c>
       <c r="B119" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>2006012</v>
+        <f t="shared" si="11"/>
+        <v>200704</v>
       </c>
       <c r="C119" s="1">
         <v>4.5</v>
       </c>
       <c r="D119" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>39051</v>
+        <v>39172</v>
       </c>
       <c r="B120" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>2006011</v>
+        <f t="shared" si="11"/>
+        <v>200703</v>
       </c>
       <c r="C120" s="1">
         <v>4.5</v>
       </c>
       <c r="D120" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>39021</v>
+        <v>39141</v>
       </c>
       <c r="B121" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>2006010</v>
+        <f t="shared" si="11"/>
+        <v>200702</v>
       </c>
       <c r="C121" s="1">
         <v>4.5</v>
       </c>
       <c r="D121" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>38990</v>
+        <v>39113</v>
       </c>
       <c r="B122" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>200609</v>
+        <f t="shared" si="11"/>
+        <v>200701</v>
       </c>
       <c r="C122" s="1">
         <v>4.5</v>
       </c>
       <c r="D122" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>38960</v>
+        <v>39082</v>
       </c>
       <c r="B123" s="3" t="str">
-        <f>CONCATENATE(YEAR(A123),IF(LEN(MONTH(A123))&lt;2, "0",""),MONTH(A123))</f>
-        <v>200608</v>
+        <f t="shared" si="11"/>
+        <v>2006012</v>
       </c>
       <c r="C123" s="1">
         <v>4.5</v>
       </c>
       <c r="D123" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>39051</v>
+      </c>
+      <c r="B124" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>2006011</v>
+      </c>
+      <c r="C124" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D124" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>39021</v>
+      </c>
+      <c r="B125" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>2006010</v>
+      </c>
+      <c r="C125" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D125" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>38990</v>
+      </c>
+      <c r="B126" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>200609</v>
+      </c>
+      <c r="C126" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D126" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>38960</v>
+      </c>
+      <c r="B127" s="3" t="str">
+        <f>CONCATENATE(YEAR(A127),IF(LEN(MONTH(A127))&lt;2, "0",""),MONTH(A127))</f>
+        <v>200608</v>
+      </c>
+      <c r="C127" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D127" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>UP</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1">
-      <c r="A124" s="3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>38929</v>
-      </c>
-      <c r="B124" s="3" t="str">
-        <f>CONCATENATE(YEAR(A124),"0",MONTH(A124))</f>
-        <v>200607</v>
-      </c>
-      <c r="C124" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="D124" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="3">
-        <v>38898</v>
-      </c>
-      <c r="B125" s="3" t="str">
-        <f>CONCATENATE(YEAR(A125),IF(LEN(MONTH(A125))&lt;2, "0",""),MONTH(A125))</f>
-        <v>200606</v>
-      </c>
-      <c r="C125" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="D125" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>UP</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1">
-      <c r="A126" s="3">
-        <v>38868</v>
-      </c>
-      <c r="B126" s="3" t="str">
-        <f>CONCATENATE(YEAR(A126),"0",MONTH(A126))</f>
-        <v>200605</v>
-      </c>
-      <c r="C126" s="1">
-        <v>4</v>
-      </c>
-      <c r="D126" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1">
-      <c r="A127" s="3">
-        <v>38837</v>
-      </c>
-      <c r="B127" s="3" t="str">
-        <f>CONCATENATE(YEAR(A127),"0",MONTH(A127))</f>
-        <v>200604</v>
-      </c>
-      <c r="C127" s="1">
-        <v>4</v>
-      </c>
-      <c r="D127" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1">
-      <c r="A128" s="3">
-        <v>38807</v>
       </c>
       <c r="B128" s="3" t="str">
         <f>CONCATENATE(YEAR(A128),"0",MONTH(A128))</f>
-        <v>200603</v>
+        <v>200607</v>
       </c>
       <c r="C128" s="1">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="D128" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>38776</v>
+        <v>38898</v>
       </c>
       <c r="B129" s="3" t="str">
         <f>CONCATENATE(YEAR(A129),IF(LEN(MONTH(A129))&lt;2, "0",""),MONTH(A129))</f>
-        <v>200602</v>
+        <v>200606</v>
       </c>
       <c r="C129" s="1">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="D129" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>UP</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>38748</v>
+        <v>38868</v>
       </c>
       <c r="B130" s="3" t="str">
         <f>CONCATENATE(YEAR(A130),"0",MONTH(A130))</f>
-        <v>200601</v>
+        <v>200605</v>
       </c>
       <c r="C130" s="1">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D130" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>38717</v>
+        <v>38837</v>
       </c>
       <c r="B131" s="3" t="str">
-        <f>CONCATENATE(YEAR(A131),IF(LEN(MONTH(A131))&lt;2, "0",""),MONTH(A131))</f>
-        <v>200512</v>
+        <f>CONCATENATE(YEAR(A131),"0",MONTH(A131))</f>
+        <v>200604</v>
       </c>
       <c r="C131" s="1">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D131" s="1" t="str">
-        <f t="shared" ref="D131:D194" si="11">IF(C131-C132=0,"STAY",IF(C131&gt;C132,"UP","DOWN"))</f>
-        <v>UP</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" hidden="1">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>38686</v>
+        <v>38807</v>
       </c>
       <c r="B132" s="3" t="str">
         <f>CONCATENATE(YEAR(A132),"0",MONTH(A132))</f>
-        <v>2005011</v>
+        <v>200603</v>
       </c>
       <c r="C132" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D132" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>38656</v>
+        <v>38776</v>
       </c>
       <c r="B133" s="3" t="str">
         <f>CONCATENATE(YEAR(A133),IF(LEN(MONTH(A133))&lt;2, "0",""),MONTH(A133))</f>
+        <v>200602</v>
+      </c>
+      <c r="C133" s="1">
+        <v>4</v>
+      </c>
+      <c r="D133" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>UP</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>38748</v>
+      </c>
+      <c r="B134" s="3" t="str">
+        <f>CONCATENATE(YEAR(A134),"0",MONTH(A134))</f>
+        <v>200601</v>
+      </c>
+      <c r="C134" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="D134" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>38717</v>
+      </c>
+      <c r="B135" s="3" t="str">
+        <f>CONCATENATE(YEAR(A135),IF(LEN(MONTH(A135))&lt;2, "0",""),MONTH(A135))</f>
+        <v>200512</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="D135" s="1" t="str">
+        <f t="shared" ref="D135:D198" si="12">IF(C135-C136=0,"STAY",IF(C135&gt;C136,"UP","DOWN"))</f>
+        <v>UP</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>38686</v>
+      </c>
+      <c r="B136" s="3" t="str">
+        <f>CONCATENATE(YEAR(A136),"0",MONTH(A136))</f>
+        <v>2005011</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D136" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>38656</v>
+      </c>
+      <c r="B137" s="3" t="str">
+        <f>CONCATENATE(YEAR(A137),IF(LEN(MONTH(A137))&lt;2, "0",""),MONTH(A137))</f>
         <v>200510</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C137" s="1">
         <v>3.5</v>
       </c>
-      <c r="D133" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D137" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>UP</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1">
-      <c r="A134" s="3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <v>38625</v>
       </c>
-      <c r="B134" s="3" t="str">
-        <f t="shared" ref="B134:B143" si="12">CONCATENATE(YEAR(A134),"0",MONTH(A134))</f>
+      <c r="B138" s="3" t="str">
+        <f t="shared" ref="B138:B147" si="13">CONCATENATE(YEAR(A138),"0",MONTH(A138))</f>
         <v>200509</v>
-      </c>
-      <c r="C134" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="D134" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" hidden="1">
-      <c r="A135" s="3">
-        <v>38595</v>
-      </c>
-      <c r="B135" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>200508</v>
-      </c>
-      <c r="C135" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="D135" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1">
-      <c r="A136" s="3">
-        <v>38564</v>
-      </c>
-      <c r="B136" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>200507</v>
-      </c>
-      <c r="C136" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="D136" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" hidden="1">
-      <c r="A137" s="3">
-        <v>38533</v>
-      </c>
-      <c r="B137" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>200506</v>
-      </c>
-      <c r="C137" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="D137" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" hidden="1">
-      <c r="A138" s="3">
-        <v>38503</v>
-      </c>
-      <c r="B138" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>200505</v>
       </c>
       <c r="C138" s="1">
         <v>3.25</v>
       </c>
       <c r="D138" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>38472</v>
+        <v>38595</v>
       </c>
       <c r="B139" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>200504</v>
+        <f t="shared" si="13"/>
+        <v>200508</v>
       </c>
       <c r="C139" s="1">
         <v>3.25</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>38442</v>
+        <v>38564</v>
       </c>
       <c r="B140" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>200503</v>
+        <f t="shared" si="13"/>
+        <v>200507</v>
       </c>
       <c r="C140" s="1">
         <v>3.25</v>
       </c>
       <c r="D140" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>38411</v>
+        <v>38533</v>
       </c>
       <c r="B141" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>200502</v>
+        <f t="shared" si="13"/>
+        <v>200506</v>
       </c>
       <c r="C141" s="1">
         <v>3.25</v>
       </c>
       <c r="D141" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>38383</v>
+        <v>38503</v>
       </c>
       <c r="B142" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>200501</v>
+        <f t="shared" si="13"/>
+        <v>200505</v>
       </c>
       <c r="C142" s="1">
         <v>3.25</v>
       </c>
       <c r="D142" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>38352</v>
+        <v>38472</v>
       </c>
       <c r="B143" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>2004012</v>
+        <f t="shared" si="13"/>
+        <v>200504</v>
       </c>
       <c r="C143" s="1">
         <v>3.25</v>
       </c>
       <c r="D143" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>38321</v>
+        <v>38442</v>
       </c>
       <c r="B144" s="3" t="str">
-        <f>CONCATENATE(YEAR(A144),IF(LEN(MONTH(A144))&lt;2, "0",""),MONTH(A144))</f>
-        <v>200411</v>
+        <f t="shared" si="13"/>
+        <v>200503</v>
       </c>
       <c r="C144" s="1">
         <v>3.25</v>
       </c>
       <c r="D144" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>38411</v>
+      </c>
+      <c r="B145" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>200502</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D145" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>38383</v>
+      </c>
+      <c r="B146" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>200501</v>
+      </c>
+      <c r="C146" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D146" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>38352</v>
+      </c>
+      <c r="B147" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>2004012</v>
+      </c>
+      <c r="C147" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D147" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>38321</v>
+      </c>
+      <c r="B148" s="3" t="str">
+        <f>CONCATENATE(YEAR(A148),IF(LEN(MONTH(A148))&lt;2, "0",""),MONTH(A148))</f>
+        <v>200411</v>
+      </c>
+      <c r="C148" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D148" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>DOWN</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1">
-      <c r="A145" s="3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <v>38291</v>
       </c>
-      <c r="B145" s="3" t="str">
-        <f>CONCATENATE(YEAR(A145),"0",MONTH(A145))</f>
+      <c r="B149" s="3" t="str">
+        <f>CONCATENATE(YEAR(A149),"0",MONTH(A149))</f>
         <v>2004010</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C149" s="1">
         <v>3.5</v>
       </c>
-      <c r="D145" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" hidden="1">
-      <c r="A146" s="3">
+      <c r="D149" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <v>38260</v>
       </c>
-      <c r="B146" s="3" t="str">
-        <f>CONCATENATE(YEAR(A146),"0",MONTH(A146))</f>
+      <c r="B150" s="3" t="str">
+        <f>CONCATENATE(YEAR(A150),"0",MONTH(A150))</f>
         <v>200409</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C150" s="1">
         <v>3.5</v>
       </c>
-      <c r="D146" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="3">
+      <c r="D150" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <v>38230</v>
       </c>
-      <c r="B147" s="3" t="str">
-        <f>CONCATENATE(YEAR(A147),IF(LEN(MONTH(A147))&lt;2, "0",""),MONTH(A147))</f>
+      <c r="B151" s="3" t="str">
+        <f>CONCATENATE(YEAR(A151),IF(LEN(MONTH(A151))&lt;2, "0",""),MONTH(A151))</f>
         <v>200408</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C151" s="1">
         <v>3.5</v>
       </c>
-      <c r="D147" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D151" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>DOWN</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1">
-      <c r="A148" s="3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <v>38199</v>
       </c>
-      <c r="B148" s="3" t="str">
-        <f t="shared" ref="B148:B159" si="13">CONCATENATE(YEAR(A148),"0",MONTH(A148))</f>
+      <c r="B152" s="3" t="str">
+        <f t="shared" ref="B152:B163" si="14">CONCATENATE(YEAR(A152),"0",MONTH(A152))</f>
         <v>200407</v>
-      </c>
-      <c r="C148" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="D148" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1">
-      <c r="A149" s="3">
-        <v>38168</v>
-      </c>
-      <c r="B149" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>200406</v>
-      </c>
-      <c r="C149" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="D149" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" hidden="1">
-      <c r="A150" s="3">
-        <v>38138</v>
-      </c>
-      <c r="B150" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>200405</v>
-      </c>
-      <c r="C150" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="D150" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" hidden="1">
-      <c r="A151" s="3">
-        <v>38107</v>
-      </c>
-      <c r="B151" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>200404</v>
-      </c>
-      <c r="C151" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="D151" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" hidden="1">
-      <c r="A152" s="3">
-        <v>38077</v>
-      </c>
-      <c r="B152" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>200403</v>
       </c>
       <c r="C152" s="1">
         <v>3.75</v>
       </c>
       <c r="D152" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>38046</v>
+        <v>38168</v>
       </c>
       <c r="B153" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>200402</v>
+        <f t="shared" si="14"/>
+        <v>200406</v>
       </c>
       <c r="C153" s="1">
         <v>3.75</v>
       </c>
       <c r="D153" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>38017</v>
+        <v>38138</v>
       </c>
       <c r="B154" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>200401</v>
+        <f t="shared" si="14"/>
+        <v>200405</v>
       </c>
       <c r="C154" s="1">
         <v>3.75</v>
       </c>
       <c r="D154" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>37986</v>
+        <v>38107</v>
       </c>
       <c r="B155" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>2003012</v>
+        <f t="shared" si="14"/>
+        <v>200404</v>
       </c>
       <c r="C155" s="1">
         <v>3.75</v>
       </c>
       <c r="D155" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>37955</v>
+        <v>38077</v>
       </c>
       <c r="B156" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>2003011</v>
+        <f t="shared" si="14"/>
+        <v>200403</v>
       </c>
       <c r="C156" s="1">
         <v>3.75</v>
       </c>
       <c r="D156" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>37925</v>
+        <v>38046</v>
       </c>
       <c r="B157" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>2003010</v>
+        <f t="shared" si="14"/>
+        <v>200402</v>
       </c>
       <c r="C157" s="1">
         <v>3.75</v>
       </c>
       <c r="D157" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>37894</v>
+        <v>38017</v>
       </c>
       <c r="B158" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>200309</v>
+        <f t="shared" si="14"/>
+        <v>200401</v>
       </c>
       <c r="C158" s="1">
         <v>3.75</v>
       </c>
       <c r="D158" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>37864</v>
+        <v>37986</v>
       </c>
       <c r="B159" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>200308</v>
+        <f t="shared" si="14"/>
+        <v>2003012</v>
       </c>
       <c r="C159" s="1">
         <v>3.75</v>
       </c>
       <c r="D159" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>37833</v>
+        <v>37955</v>
       </c>
       <c r="B160" s="3" t="str">
-        <f>CONCATENATE(YEAR(A160),IF(LEN(MONTH(A160))&lt;2, "0",""),MONTH(A160))</f>
-        <v>200307</v>
+        <f t="shared" si="14"/>
+        <v>2003011</v>
       </c>
       <c r="C160" s="1">
         <v>3.75</v>
       </c>
       <c r="D160" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>37925</v>
+      </c>
+      <c r="B161" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>2003010</v>
+      </c>
+      <c r="C161" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="D161" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>37894</v>
+      </c>
+      <c r="B162" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>200309</v>
+      </c>
+      <c r="C162" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="D162" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>37864</v>
+      </c>
+      <c r="B163" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>200308</v>
+      </c>
+      <c r="C163" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="D163" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>37833</v>
+      </c>
+      <c r="B164" s="3" t="str">
+        <f>CONCATENATE(YEAR(A164),IF(LEN(MONTH(A164))&lt;2, "0",""),MONTH(A164))</f>
+        <v>200307</v>
+      </c>
+      <c r="C164" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="D164" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>DOWN</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1">
-      <c r="A161" s="3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <v>37802</v>
       </c>
-      <c r="B161" s="3" t="str">
-        <f>CONCATENATE(YEAR(A161),"0",MONTH(A161))</f>
+      <c r="B165" s="3" t="str">
+        <f>CONCATENATE(YEAR(A165),"0",MONTH(A165))</f>
         <v>200306</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C165" s="1">
         <v>4</v>
       </c>
-      <c r="D161" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="3">
+      <c r="D165" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <v>37772</v>
       </c>
-      <c r="B162" s="3" t="str">
-        <f>CONCATENATE(YEAR(A162),IF(LEN(MONTH(A162))&lt;2, "0",""),MONTH(A162))</f>
+      <c r="B166" s="3" t="str">
+        <f>CONCATENATE(YEAR(A166),IF(LEN(MONTH(A166))&lt;2, "0",""),MONTH(A166))</f>
         <v>200305</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C166" s="1">
         <v>4</v>
       </c>
-      <c r="D162" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D166" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>DOWN</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1">
-      <c r="A163" s="3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <v>37741</v>
       </c>
-      <c r="B163" s="3" t="str">
-        <f t="shared" ref="B163:B173" si="14">CONCATENATE(YEAR(A163),"0",MONTH(A163))</f>
+      <c r="B167" s="3" t="str">
+        <f t="shared" ref="B167:B177" si="15">CONCATENATE(YEAR(A167),"0",MONTH(A167))</f>
         <v>200304</v>
-      </c>
-      <c r="C163" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="D163" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" hidden="1">
-      <c r="A164" s="3">
-        <v>37711</v>
-      </c>
-      <c r="B164" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>200303</v>
-      </c>
-      <c r="C164" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="D164" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" hidden="1">
-      <c r="A165" s="3">
-        <v>37680</v>
-      </c>
-      <c r="B165" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>200302</v>
-      </c>
-      <c r="C165" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="D165" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" hidden="1">
-      <c r="A166" s="3">
-        <v>37652</v>
-      </c>
-      <c r="B166" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>200301</v>
-      </c>
-      <c r="C166" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="D166" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1">
-      <c r="A167" s="3">
-        <v>37621</v>
-      </c>
-      <c r="B167" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>2002012</v>
       </c>
       <c r="C167" s="1">
         <v>4.25</v>
       </c>
       <c r="D167" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>37590</v>
+        <v>37711</v>
       </c>
       <c r="B168" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>2002011</v>
+        <f t="shared" si="15"/>
+        <v>200303</v>
       </c>
       <c r="C168" s="1">
         <v>4.25</v>
       </c>
       <c r="D168" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>37560</v>
+        <v>37680</v>
       </c>
       <c r="B169" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>2002010</v>
+        <f t="shared" si="15"/>
+        <v>200302</v>
       </c>
       <c r="C169" s="1">
         <v>4.25</v>
       </c>
       <c r="D169" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>37529</v>
+        <v>37652</v>
       </c>
       <c r="B170" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>200209</v>
+        <f t="shared" si="15"/>
+        <v>200301</v>
       </c>
       <c r="C170" s="1">
         <v>4.25</v>
       </c>
       <c r="D170" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>37499</v>
+        <v>37621</v>
       </c>
       <c r="B171" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>200208</v>
+        <f t="shared" si="15"/>
+        <v>2002012</v>
       </c>
       <c r="C171" s="1">
         <v>4.25</v>
       </c>
       <c r="D171" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>37468</v>
+        <v>37590</v>
       </c>
       <c r="B172" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>200207</v>
+        <f t="shared" si="15"/>
+        <v>2002011</v>
       </c>
       <c r="C172" s="1">
         <v>4.25</v>
       </c>
       <c r="D172" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>37437</v>
+        <v>37560</v>
       </c>
       <c r="B173" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>200206</v>
+        <f t="shared" si="15"/>
+        <v>2002010</v>
       </c>
       <c r="C173" s="1">
         <v>4.25</v>
       </c>
       <c r="D173" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>37407</v>
+        <v>37529</v>
       </c>
       <c r="B174" s="3" t="str">
-        <f>CONCATENATE(YEAR(A174),IF(LEN(MONTH(A174))&lt;2, "0",""),MONTH(A174))</f>
-        <v>200205</v>
+        <f t="shared" si="15"/>
+        <v>200209</v>
       </c>
       <c r="C174" s="1">
         <v>4.25</v>
       </c>
       <c r="D174" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UP</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>37376</v>
+        <v>37499</v>
       </c>
       <c r="B175" s="3" t="str">
-        <f t="shared" ref="B175:B181" si="15">CONCATENATE(YEAR(A175),"0",MONTH(A175))</f>
-        <v>200204</v>
+        <f t="shared" si="15"/>
+        <v>200208</v>
       </c>
       <c r="C175" s="1">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="D175" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <v>37346</v>
+        <v>37468</v>
       </c>
       <c r="B176" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>200203</v>
+        <v>200207</v>
       </c>
       <c r="C176" s="1">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="D176" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>37315</v>
+        <v>37437</v>
       </c>
       <c r="B177" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>200202</v>
+        <v>200206</v>
       </c>
       <c r="C177" s="1">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="D177" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>37287</v>
+        <v>37407</v>
       </c>
       <c r="B178" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>200201</v>
+        <f>CONCATENATE(YEAR(A178),IF(LEN(MONTH(A178))&lt;2, "0",""),MONTH(A178))</f>
+        <v>200205</v>
       </c>
       <c r="C178" s="1">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="D178" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>UP</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>37256</v>
+        <v>37376</v>
       </c>
       <c r="B179" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2001012</v>
+        <f t="shared" ref="B179:B185" si="16">CONCATENATE(YEAR(A179),"0",MONTH(A179))</f>
+        <v>200204</v>
       </c>
       <c r="C179" s="1">
         <v>4</v>
       </c>
       <c r="D179" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <v>37225</v>
+        <v>37346</v>
       </c>
       <c r="B180" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2001011</v>
+        <f t="shared" si="16"/>
+        <v>200203</v>
       </c>
       <c r="C180" s="1">
         <v>4</v>
       </c>
       <c r="D180" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>37195</v>
+        <v>37315</v>
       </c>
       <c r="B181" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>2001010</v>
+        <f t="shared" si="16"/>
+        <v>200202</v>
       </c>
       <c r="C181" s="1">
         <v>4</v>
       </c>
       <c r="D181" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>37164</v>
+        <v>37287</v>
       </c>
       <c r="B182" s="3" t="str">
-        <f t="shared" ref="B182:B184" si="16">CONCATENATE(YEAR(A182),IF(LEN(MONTH(A182))&lt;2, "0",""),MONTH(A182))</f>
-        <v>200109</v>
+        <f t="shared" si="16"/>
+        <v>200201</v>
       </c>
       <c r="C182" s="1">
         <v>4</v>
       </c>
       <c r="D182" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>DOWN</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <v>37134</v>
+        <v>37256</v>
       </c>
       <c r="B183" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>200108</v>
+        <v>2001012</v>
       </c>
       <c r="C183" s="1">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D183" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>DOWN</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
-        <v>37103</v>
+        <v>37225</v>
       </c>
       <c r="B184" s="3" t="str">
         <f t="shared" si="16"/>
+        <v>2001011</v>
+      </c>
+      <c r="C184" s="1">
+        <v>4</v>
+      </c>
+      <c r="D184" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>37195</v>
+      </c>
+      <c r="B185" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>2001010</v>
+      </c>
+      <c r="C185" s="1">
+        <v>4</v>
+      </c>
+      <c r="D185" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>37164</v>
+      </c>
+      <c r="B186" s="3" t="str">
+        <f t="shared" ref="B186:B188" si="17">CONCATENATE(YEAR(A186),IF(LEN(MONTH(A186))&lt;2, "0",""),MONTH(A186))</f>
+        <v>200109</v>
+      </c>
+      <c r="C186" s="1">
+        <v>4</v>
+      </c>
+      <c r="D186" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>DOWN</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>37134</v>
+      </c>
+      <c r="B187" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>200108</v>
+      </c>
+      <c r="C187" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D187" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>DOWN</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>37103</v>
+      </c>
+      <c r="B188" s="3" t="str">
+        <f t="shared" si="17"/>
         <v>200107</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C188" s="1">
         <v>4.75</v>
       </c>
-      <c r="D184" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D188" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>DOWN</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1">
-      <c r="A185" s="3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <v>37072</v>
       </c>
-      <c r="B185" s="3" t="str">
-        <f>CONCATENATE(YEAR(A185),"0",MONTH(A185))</f>
+      <c r="B189" s="3" t="str">
+        <f>CONCATENATE(YEAR(A189),"0",MONTH(A189))</f>
         <v>200106</v>
       </c>
-      <c r="C185" s="1">
-        <v>5</v>
-      </c>
-      <c r="D185" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" hidden="1">
-      <c r="A186" s="3">
+      <c r="C189" s="1">
+        <v>5</v>
+      </c>
+      <c r="D189" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <v>37042</v>
-      </c>
-      <c r="B186" s="3" t="str">
-        <f>CONCATENATE(YEAR(A186),"0",MONTH(A186))</f>
-        <v>200105</v>
-      </c>
-      <c r="C186" s="1">
-        <v>5</v>
-      </c>
-      <c r="D186" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" hidden="1">
-      <c r="A187" s="3">
-        <v>37011</v>
-      </c>
-      <c r="B187" s="3" t="str">
-        <f>CONCATENATE(YEAR(A187),"0",MONTH(A187))</f>
-        <v>200104</v>
-      </c>
-      <c r="C187" s="1">
-        <v>5</v>
-      </c>
-      <c r="D187" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" hidden="1">
-      <c r="A188" s="3">
-        <v>36981</v>
-      </c>
-      <c r="B188" s="3" t="str">
-        <f>CONCATENATE(YEAR(A188),"0",MONTH(A188))</f>
-        <v>200103</v>
-      </c>
-      <c r="C188" s="1">
-        <v>5</v>
-      </c>
-      <c r="D188" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="3">
-        <v>36950</v>
-      </c>
-      <c r="B189" s="3" t="str">
-        <f>CONCATENATE(YEAR(A189),IF(LEN(MONTH(A189))&lt;2, "0",""),MONTH(A189))</f>
-        <v>200102</v>
-      </c>
-      <c r="C189" s="1">
-        <v>5</v>
-      </c>
-      <c r="D189" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>DOWN</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" hidden="1">
-      <c r="A190" s="3">
-        <v>36922</v>
       </c>
       <c r="B190" s="3" t="str">
         <f>CONCATENATE(YEAR(A190),"0",MONTH(A190))</f>
-        <v>200101</v>
+        <v>200105</v>
       </c>
       <c r="C190" s="1">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="D190" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <v>36891</v>
+        <v>37011</v>
       </c>
       <c r="B191" s="3" t="str">
         <f>CONCATENATE(YEAR(A191),"0",MONTH(A191))</f>
-        <v>2000012</v>
+        <v>200104</v>
       </c>
       <c r="C191" s="1">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="D191" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" hidden="1">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <v>36860</v>
+        <v>36981</v>
       </c>
       <c r="B192" s="3" t="str">
         <f>CONCATENATE(YEAR(A192),"0",MONTH(A192))</f>
-        <v>2000011</v>
+        <v>200103</v>
       </c>
       <c r="C192" s="1">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="D192" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
-        <v>36830</v>
+        <v>36950</v>
       </c>
       <c r="B193" s="3" t="str">
         <f>CONCATENATE(YEAR(A193),IF(LEN(MONTH(A193))&lt;2, "0",""),MONTH(A193))</f>
+        <v>200102</v>
+      </c>
+      <c r="C193" s="1">
+        <v>5</v>
+      </c>
+      <c r="D193" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>DOWN</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>36922</v>
+      </c>
+      <c r="B194" s="3" t="str">
+        <f>CONCATENATE(YEAR(A194),"0",MONTH(A194))</f>
+        <v>200101</v>
+      </c>
+      <c r="C194" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="D194" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>36891</v>
+      </c>
+      <c r="B195" s="3" t="str">
+        <f>CONCATENATE(YEAR(A195),"0",MONTH(A195))</f>
+        <v>2000012</v>
+      </c>
+      <c r="C195" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="D195" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>36860</v>
+      </c>
+      <c r="B196" s="3" t="str">
+        <f>CONCATENATE(YEAR(A196),"0",MONTH(A196))</f>
+        <v>2000011</v>
+      </c>
+      <c r="C196" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="D196" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>36830</v>
+      </c>
+      <c r="B197" s="3" t="str">
+        <f>CONCATENATE(YEAR(A197),IF(LEN(MONTH(A197))&lt;2, "0",""),MONTH(A197))</f>
         <v>200010</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C197" s="1">
         <v>5.25</v>
       </c>
-      <c r="D193" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D197" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>UP</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
-      <c r="A194" s="3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <v>36799</v>
       </c>
-      <c r="B194" s="3" t="str">
-        <f t="shared" ref="B194:B200" si="17">CONCATENATE(YEAR(A194),"0",MONTH(A194))</f>
+      <c r="B198" s="3" t="str">
+        <f t="shared" ref="B198:B204" si="18">CONCATENATE(YEAR(A198),"0",MONTH(A198))</f>
         <v>200009</v>
       </c>
-      <c r="C194" s="1">
-        <v>5</v>
-      </c>
-      <c r="D194" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" hidden="1">
-      <c r="A195" s="3">
+      <c r="C198" s="1">
+        <v>5</v>
+      </c>
+      <c r="D198" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <v>36769</v>
       </c>
-      <c r="B195" s="3" t="str">
-        <f t="shared" si="17"/>
+      <c r="B199" s="3" t="str">
+        <f t="shared" si="18"/>
         <v>200008</v>
       </c>
-      <c r="C195" s="1">
-        <v>5</v>
-      </c>
-      <c r="D195" s="1" t="str">
-        <f t="shared" ref="D195:D210" si="18">IF(C195-C196=0,"STAY",IF(C195&gt;C196,"UP","DOWN"))</f>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" hidden="1">
-      <c r="A196" s="3">
+      <c r="C199" s="1">
+        <v>5</v>
+      </c>
+      <c r="D199" s="1" t="str">
+        <f t="shared" ref="D199:D214" si="19">IF(C199-C200=0,"STAY",IF(C199&gt;C200,"UP","DOWN"))</f>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <v>36738</v>
       </c>
-      <c r="B196" s="3" t="str">
-        <f t="shared" si="17"/>
+      <c r="B200" s="3" t="str">
+        <f t="shared" si="18"/>
         <v>200007</v>
       </c>
-      <c r="C196" s="1">
-        <v>5</v>
-      </c>
-      <c r="D196" s="1" t="str">
+      <c r="C200" s="1">
+        <v>5</v>
+      </c>
+      <c r="D200" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>36707</v>
+      </c>
+      <c r="B201" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" hidden="1">
-      <c r="A197" s="3">
-        <v>36707</v>
-      </c>
-      <c r="B197" s="3" t="str">
-        <f t="shared" si="17"/>
         <v>200006</v>
       </c>
-      <c r="C197" s="1">
-        <v>5</v>
-      </c>
-      <c r="D197" s="1" t="str">
+      <c r="C201" s="1">
+        <v>5</v>
+      </c>
+      <c r="D201" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>36677</v>
+      </c>
+      <c r="B202" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" hidden="1">
-      <c r="A198" s="3">
-        <v>36677</v>
-      </c>
-      <c r="B198" s="3" t="str">
-        <f t="shared" si="17"/>
         <v>200005</v>
       </c>
-      <c r="C198" s="1">
-        <v>5</v>
-      </c>
-      <c r="D198" s="1" t="str">
+      <c r="C202" s="1">
+        <v>5</v>
+      </c>
+      <c r="D202" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>36646</v>
+      </c>
+      <c r="B203" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" hidden="1">
-      <c r="A199" s="3">
-        <v>36646</v>
-      </c>
-      <c r="B199" s="3" t="str">
-        <f t="shared" si="17"/>
         <v>200004</v>
       </c>
-      <c r="C199" s="1">
-        <v>5</v>
-      </c>
-      <c r="D199" s="1" t="str">
+      <c r="C203" s="1">
+        <v>5</v>
+      </c>
+      <c r="D203" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>36616</v>
+      </c>
+      <c r="B204" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" hidden="1">
-      <c r="A200" s="3">
-        <v>36616</v>
-      </c>
-      <c r="B200" s="3" t="str">
-        <f t="shared" si="17"/>
         <v>200003</v>
       </c>
-      <c r="C200" s="1">
-        <v>5</v>
-      </c>
-      <c r="D200" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="3">
+      <c r="C204" s="1">
+        <v>5</v>
+      </c>
+      <c r="D204" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <v>36585</v>
       </c>
-      <c r="B201" s="3" t="str">
-        <f>CONCATENATE(YEAR(A201),IF(LEN(MONTH(A201))&lt;2, "0",""),MONTH(A201))</f>
+      <c r="B205" s="3" t="str">
+        <f>CONCATENATE(YEAR(A205),IF(LEN(MONTH(A205))&lt;2, "0",""),MONTH(A205))</f>
         <v>200002</v>
       </c>
-      <c r="C201" s="1">
-        <v>5</v>
-      </c>
-      <c r="D201" s="1" t="str">
-        <f t="shared" si="18"/>
+      <c r="C205" s="1">
+        <v>5</v>
+      </c>
+      <c r="D205" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>UP</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1">
-      <c r="A202" s="3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <v>36556</v>
       </c>
-      <c r="B202" s="3" t="str">
-        <f t="shared" ref="B202:B209" si="19">CONCATENATE(YEAR(A202),"0",MONTH(A202))</f>
+      <c r="B206" s="3" t="str">
+        <f t="shared" ref="B206:B213" si="20">CONCATENATE(YEAR(A206),"0",MONTH(A206))</f>
         <v>200001</v>
-      </c>
-      <c r="C202" s="1">
-        <v>4.75</v>
-      </c>
-      <c r="D202" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" hidden="1">
-      <c r="A203" s="3">
-        <v>36525</v>
-      </c>
-      <c r="B203" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>1999012</v>
-      </c>
-      <c r="C203" s="1">
-        <v>4.75</v>
-      </c>
-      <c r="D203" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" hidden="1">
-      <c r="A204" s="3">
-        <v>36494</v>
-      </c>
-      <c r="B204" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>1999011</v>
-      </c>
-      <c r="C204" s="1">
-        <v>4.75</v>
-      </c>
-      <c r="D204" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" hidden="1">
-      <c r="A205" s="3">
-        <v>36464</v>
-      </c>
-      <c r="B205" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>1999010</v>
-      </c>
-      <c r="C205" s="1">
-        <v>4.75</v>
-      </c>
-      <c r="D205" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" hidden="1">
-      <c r="A206" s="3">
-        <v>36433</v>
-      </c>
-      <c r="B206" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>199909</v>
       </c>
       <c r="C206" s="1">
         <v>4.75</v>
       </c>
       <c r="D206" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" hidden="1">
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
-        <v>36403</v>
+        <v>36525</v>
       </c>
       <c r="B207" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>199908</v>
+        <f t="shared" si="20"/>
+        <v>1999012</v>
       </c>
       <c r="C207" s="1">
         <v>4.75</v>
       </c>
       <c r="D207" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" hidden="1">
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <v>36372</v>
+        <v>36494</v>
       </c>
       <c r="B208" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>199907</v>
+        <f t="shared" si="20"/>
+        <v>1999011</v>
       </c>
       <c r="C208" s="1">
         <v>4.75</v>
       </c>
       <c r="D208" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" hidden="1">
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
-        <v>36341</v>
+        <v>36464</v>
       </c>
       <c r="B209" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>199906</v>
+        <f t="shared" si="20"/>
+        <v>1999010</v>
       </c>
       <c r="C209" s="1">
         <v>4.75</v>
       </c>
       <c r="D209" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>STAY</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
-        <v>36311</v>
+        <v>36433</v>
       </c>
       <c r="B210" s="3" t="str">
-        <f>CONCATENATE(YEAR(A210),IF(LEN(MONTH(A210))&lt;2, "0",""),MONTH(A210))</f>
-        <v>199905</v>
+        <f t="shared" si="20"/>
+        <v>199909</v>
       </c>
       <c r="C210" s="1">
         <v>4.75</v>
       </c>
       <c r="D210" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>36403</v>
+      </c>
+      <c r="B211" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>199908</v>
+      </c>
+      <c r="C211" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="D211" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>36372</v>
+      </c>
+      <c r="B212" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>199907</v>
+      </c>
+      <c r="C212" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="D212" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>36341</v>
+      </c>
+      <c r="B213" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>199906</v>
+      </c>
+      <c r="C213" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="D213" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>STAY</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>36311</v>
+      </c>
+      <c r="B214" s="3" t="str">
+        <f>CONCATENATE(YEAR(A214),IF(LEN(MONTH(A214))&lt;2, "0",""),MONTH(A214))</f>
+        <v>199905</v>
+      </c>
+      <c r="C214" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="D214" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>UP</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D210">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="DOWN"/>
-        <filter val="UP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7821,19 +7892,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7844,7 +7915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -7855,7 +7926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -7866,7 +7937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -7877,7 +7948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
@@ -7888,7 +7959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -7899,7 +7970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -7910,7 +7981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
@@ -7921,7 +7992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -7932,7 +8003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7943,7 +8014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -7954,7 +8025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
@@ -7965,7 +8036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -7976,7 +8047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -7987,7 +8058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -7998,7 +8069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -8009,7 +8080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -8020,7 +8091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -8031,7 +8102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
@@ -8042,7 +8113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -8053,7 +8124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -8064,7 +8135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -8075,7 +8146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -8086,7 +8157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
@@ -8097,7 +8168,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
@@ -8108,7 +8179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
@@ -8119,7 +8190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
@@ -8130,7 +8201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -8141,7 +8212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
@@ -8152,7 +8223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
@@ -8163,7 +8234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
@@ -8174,7 +8245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
@@ -8185,7 +8256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
@@ -8196,7 +8267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
@@ -8207,7 +8278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
@@ -8218,7 +8289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -8229,7 +8300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
@@ -8240,7 +8311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
@@ -8251,7 +8322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>53</v>
       </c>
